--- a/inst/doc/xlsx/LOBSTAHS_basic_component_matrix.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_basic_component_matrix.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="0" windowWidth="26440" windowHeight="15700" tabRatio="500" activeTab="3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="97">
   <si>
     <t>DGCC</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>Renamed file</t>
+  </si>
+  <si>
+    <t>Fixed error in DNPPE components</t>
   </si>
 </sst>
 </file>
@@ -376,8 +379,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -452,7 +457,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -480,6 +485,7 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -507,6 +513,7 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -846,7 +853,7 @@
     <sheetView topLeftCell="A2" workbookViewId="0">
       <pane ySplit="560" activePane="bottomLeft"/>
       <selection activeCell="O2" sqref="O2"/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1177,13 +1184,13 @@
         <v>43</v>
       </c>
       <c r="C7">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -1220,7 +1227,7 @@
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="0"/>
-        <v>874.54321115599998</v>
+        <v>857.51666203100001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3986,8 +3993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4250,13 +4257,13 @@
         <v>43</v>
       </c>
       <c r="C6">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>12</v>
@@ -6959,10 +6966,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7087,6 +7094,17 @@
         <v>50</v>
       </c>
     </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7">
+        <v>42371</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/inst/doc/xlsx/LOBSTAHS_basic_component_matrix.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_basic_component_matrix.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcollins/Code/LOBSTAHS/inst/doc/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="0" windowWidth="26440" windowHeight="15700" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="34440" yWindow="560" windowWidth="26440" windowHeight="15700" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Elemental composition matrix" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Exact masses of basic species " sheetId="3" r:id="rId3"/>
     <sheet name="Notes" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -291,9 +296,6 @@
     <t>Latest versions of all pipeline scripts and required files available at https://github.com/vanmooylipidomics/LOBSTAHS, or upon demand from Dr. Fredricks</t>
   </si>
   <si>
-    <t>See Collins, J.R., B.R. Edwards, H.F. Fredricks, and B.A.S. Van Mooy, 2015</t>
-  </si>
-  <si>
     <t>If making any additions or modifications to the default set of entires, do these in the worksheet on the first tab; then, paste any of the additional/modified entries "as values" into the third tab before saving</t>
   </si>
   <si>
@@ -313,6 +315,9 @@
   </si>
   <si>
     <t>Fixed error in DNPPE components</t>
+  </si>
+  <si>
+    <t>See Collins, J.R., B.R. Edwards, H.F. Fredricks, and B.A.S. Van Mooy, 2016, "LOBSTAHS: A Novel Lipidomics Strategy for Semi-Untargeted Discovery and Identification of Oxidative Stress Biomarkers"</t>
   </si>
 </sst>
 </file>
@@ -856,7 +861,7 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7:O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -864,7 +869,7 @@
     <col min="16" max="16" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>12</v>
       </c>
@@ -910,7 +915,7 @@
         <v>23.985045</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -960,7 +965,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1014,7 +1019,7 @@
         <v>32.997654283999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1073,7 @@
         <v>281.111066741</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1122,7 +1127,7 @@
         <v>446.12717036999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1176,7 +1181,7 @@
         <v>265.11615211899999</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1230,7 +1235,7 @@
         <v>857.51666203100001</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1284,7 +1289,7 @@
         <v>245.03005297300001</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>276.024633252</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1392,7 +1397,7 @@
         <v>287.07700321300001</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1446,7 +1451,7 @@
         <v>15.994914622</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1500,7 +1505,7 @@
         <v>348.03624679400002</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -1554,7 +1559,7 @@
         <v>892.53531701000009</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1608,7 +1613,7 @@
         <v>284.07434685999999</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1659,7 +1664,7 @@
         <v>41.026549125000003</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1710,7 +1715,7 @@
         <v>59.013304364</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1764,7 +1769,7 @@
         <v>-1.00727646009076</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1818,7 +1823,7 @@
         <v>59.013852943909242</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1872,7 +1877,7 @@
         <v>34.969401286909246</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1926,7 +1931,7 @@
         <v>198.97555001490923</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1980,7 +1985,7 @@
         <v>223.02000167190926</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
@@ -2034,7 +2039,7 @@
         <v>80.995797903909235</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -2088,7 +2093,7 @@
         <v>36.948605360909241</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -2142,7 +2147,7 @@
         <v>20.974668499909239</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -2196,7 +2201,7 @@
         <v>56.951346246909246</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -2250,7 +2255,7 @@
         <v>116.97247565090925</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -2304,7 +2309,7 @@
         <v>141.01692730790924</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -2358,7 +2363,7 @@
         <v>44.971166380090757</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -2412,7 +2417,7 @@
         <v>1.00727646009076</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>23</v>
       </c>
@@ -2466,7 +2471,7 @@
         <v>38.963158281090756</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
@@ -2520,7 +2525,7 @@
         <v>22.989221420090761</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
@@ -2574,7 +2579,7 @@
         <v>59.060374710090763</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -2628,7 +2633,7 @@
         <v>18.03382558509076</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
@@ -2682,7 +2687,7 @@
         <v>104.99229578409077</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>27</v>
       </c>
@@ -2736,7 +2741,7 @@
         <v>80.947844127090775</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -2790,7 +2795,7 @@
         <v>100.08692383509077</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -2844,7 +2849,7 @@
         <v>137.00861293200001</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>63</v>
       </c>
@@ -2898,7 +2903,7 @@
         <v>744.46011953599998</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
@@ -2952,7 +2957,7 @@
         <v>772.49141969599998</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>65</v>
       </c>
@@ -3006,7 +3011,7 @@
         <v>564.39673132400003</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -3060,7 +3065,7 @@
         <v>536.43820224000001</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>67</v>
       </c>
@@ -3114,7 +3119,7 @@
         <v>536.43820224000001</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>68</v>
       </c>
@@ -3168,7 +3173,7 @@
         <v>906.5145815520001</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>69</v>
       </c>
@@ -3222,7 +3227,7 @@
         <v>608.19101525000008</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>70</v>
       </c>
@@ -3276,7 +3281,7 @@
         <v>652.18084449399998</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>71</v>
       </c>
@@ -3330,7 +3335,7 @@
         <v>614.23796548999997</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>72</v>
       </c>
@@ -3384,7 +3389,7 @@
         <v>550.41746678200002</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>73</v>
       </c>
@@ -3438,7 +3443,7 @@
         <v>582.40729602600004</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>74</v>
       </c>
@@ -3492,7 +3497,7 @@
         <v>566.41238140400003</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>75</v>
       </c>
@@ -3546,7 +3551,7 @@
         <v>550.41746678200002</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>76</v>
       </c>
@@ -3600,7 +3605,7 @@
         <v>658.42334005199996</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>77</v>
       </c>
@@ -3654,7 +3659,7 @@
         <v>568.42803148400003</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>78</v>
       </c>
@@ -3708,7 +3713,7 @@
         <v>600.41786072800005</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>79</v>
       </c>
@@ -3762,7 +3767,7 @@
         <v>630.35565435399997</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>80</v>
       </c>
@@ -3816,7 +3821,7 @@
         <v>870.56592208999996</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>81</v>
       </c>
@@ -3870,7 +3875,7 @@
         <v>600.41786072800005</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>82</v>
       </c>
@@ -3924,7 +3929,7 @@
         <v>600.41786072800005</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>83</v>
       </c>
@@ -3981,11 +3986,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3997,12 +3997,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>26</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>28</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>63</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>64</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>65</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>67</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>68</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>69</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>70</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>71</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>72</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>73</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>74</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>75</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>76</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>77</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>78</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>79</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>80</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>81</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>82</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>83</v>
       </c>
@@ -6848,11 +6848,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6864,9 +6859,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -6874,7 +6869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -6882,7 +6877,7 @@
         <v>1.00727646677</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6890,7 +6885,7 @@
         <v>1.0078250399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -6898,7 +6893,7 @@
         <v>14.003074005</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -6906,7 +6901,7 @@
         <v>15.994914622</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6914,7 +6909,7 @@
         <v>30.973761511999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -6922,7 +6917,7 @@
         <v>31.972070689999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -6930,7 +6925,7 @@
         <v>22.98977</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -6938,7 +6933,7 @@
         <v>34.968852707000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6946,7 +6941,7 @@
         <v>38.963706860999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -6956,11 +6951,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6969,66 +6959,66 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
@@ -7039,7 +7029,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>42327</v>
       </c>
@@ -7050,7 +7040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>42328</v>
       </c>
@@ -7061,7 +7051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>42329</v>
       </c>
@@ -7072,34 +7062,34 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>42344</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>42344</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>42371</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
@@ -7108,10 +7098,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/inst/doc/xlsx/LOBSTAHS_basic_component_matrix.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_basic_component_matrix.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcollins/Code/LOBSTAHS/inst/doc/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcollins/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34440" yWindow="560" windowWidth="26440" windowHeight="15700" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2360" yWindow="560" windowWidth="26440" windowHeight="15700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Elemental composition matrix" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="100">
   <si>
     <t>DGCC</t>
   </si>
@@ -318,6 +321,15 @@
   </si>
   <si>
     <t>See Collins, J.R., B.R. Edwards, H.F. Fredricks, and B.A.S. Van Mooy, 2016, "LOBSTAHS: A Novel Lipidomics Strategy for Semi-Untargeted Discovery and Identification of Oxidative Stress Biomarkers"</t>
+  </si>
+  <si>
+    <t>LPC</t>
+  </si>
+  <si>
+    <t>IP_MAG</t>
+  </si>
+  <si>
+    <t>Added class IP_MAG and a LPC class to calculate lyso species</t>
   </si>
 </sst>
 </file>
@@ -853,12 +865,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <pane ySplit="560" activePane="bottomLeft"/>
       <selection activeCell="O2" sqref="O2"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:O7"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,11 +916,11 @@
         <v>5.4857990924000002E-4</v>
       </c>
       <c r="M1">
-        <f>Q15</f>
+        <f>Q16</f>
         <v>41.026549125000003</v>
       </c>
       <c r="N1">
-        <f>Q16</f>
+        <f>Q17</f>
         <v>59.013304364</v>
       </c>
       <c r="O1">
@@ -1015,7 +1027,7 @@
         <v>53</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q14" si="0">B3*$B$1+C3*$C$1+D3*$D$1+E3*$E$1+F3*$F$1+G3*$G$1+H3*$H$1+I3*$I$1+J3*$J$1+K3*$K$1+L3*$L$1+M3*$M$1+N3*$N$1+O3*$O$1</f>
+        <f t="shared" ref="Q3:Q15" si="0">B3*$B$1+C3*$C$1+D3*$D$1+E3*$E$1+F3*$F$1+G3*$G$1+H3*$H$1+I3*$I$1+J3*$J$1+K3*$K$1+L3*$L$1+M3*$M$1+N3*$N$1+O3*$O$1</f>
         <v>32.997654283999999</v>
       </c>
     </row>
@@ -1399,25 +1411,25 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1444,22 +1456,22 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="0"/>
-        <v>15.994914622</v>
+        <v>272.089913631</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1468,13 +1480,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1497,38 +1509,38 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="8" t="s">
-        <v>86</v>
+      <c r="P12" t="s">
+        <v>7</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="0"/>
-        <v>348.03624679400002</v>
+        <v>15.994914622</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1549,34 +1561,34 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="Q13" s="4">
         <f t="shared" si="0"/>
-        <v>892.53531701000009</v>
+        <v>348.03624679400002</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1603,34 +1615,34 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>86</v>
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>61</v>
       </c>
       <c r="Q14" s="4">
         <f t="shared" si="0"/>
-        <v>284.07434685999999</v>
+        <v>892.53531701000009</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1659,14 +1671,17 @@
       <c r="O15">
         <v>0</v>
       </c>
+      <c r="P15" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="Q15" s="4">
-        <f>B15*$B$1+C15*$C$1+D15*$D$1+E15*$E$1+F15*$F$1+G15*$G$1+H15*$H$1+I15*$I$1+J15*$J$1+K15*$K$1+L15*$L$1</f>
-        <v>41.026549125000003</v>
+        <f t="shared" si="0"/>
+        <v>284.07434685999999</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1678,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1712,72 +1727,69 @@
       </c>
       <c r="Q16" s="4">
         <f>B16*$B$1+C16*$C$1+D16*$D$1+E16*$E$1+F16*$F$1+G16*$G$1+H16*$H$1+I16*$I$1+J16*$J$1+K16*$K$1+L16*$L$1</f>
+        <v>41.026549125000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>B17*$B$1+C17*$C$1+D17*$D$1+E17*$E$1+F17*$F$1+G17*$G$1+H17*$H$1+I17*$I$1+J17*$J$1+K17*$K$1+L17*$L$1</f>
         <v>59.013304364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>-1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" s="4">
-        <f t="shared" ref="Q17:Q58" si="1">B17*$B$1+C17*$C$1+D17*$D$1+E17*$E$1+F17*$F$1+G17*$G$1+H17*$H$1+I17*$I$1+J17*$J$1+K17*$K$1+L17*$L$1+M17*$M$1+N17*$N$1+O17*$O$1</f>
-        <v>-1.00727646009076</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1810,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1819,1255 +1831,1255 @@
         <v>59</v>
       </c>
       <c r="Q18" s="4">
+        <f t="shared" ref="Q18:Q59" si="1">B18*$B$1+C18*$C$1+D18*$D$1+E18*$E$1+F18*$F$1+G18*$G$1+H18*$H$1+I18*$I$1+J18*$J$1+K18*$K$1+L18*$L$1+M18*$M$1+N18*$N$1+O18*$O$1</f>
+        <v>-1.00727646009076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="4">
         <f t="shared" si="1"/>
         <v>59.013852943909242</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
         <v>59</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q20" s="4">
         <f t="shared" si="1"/>
         <v>34.969401286909246</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>2</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
         <v>2</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
         <v>59</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q21" s="4">
         <f t="shared" si="1"/>
         <v>198.97555001490923</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>2</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
         <v>3</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
         <v>59</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q22" s="4">
         <f t="shared" si="1"/>
         <v>223.02000167190926</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>-1</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
         <v>59</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q23" s="4">
         <f t="shared" si="1"/>
         <v>80.995797903909235</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <v>-2</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
         <v>59</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q24" s="4">
         <f t="shared" si="1"/>
         <v>36.948605360909241</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>-2</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
         <v>59</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q25" s="4">
         <f t="shared" si="1"/>
         <v>20.974668499909239</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>-1</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
         <v>59</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q26" s="4">
         <f t="shared" si="1"/>
         <v>56.951346246909246</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
         <v>59</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q27" s="4">
         <f t="shared" si="1"/>
         <v>116.97247565090925</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
         <v>2</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
         <v>59</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q28" s="4">
         <f t="shared" si="1"/>
         <v>141.01692730790924</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>-1</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>2</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>-1</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="s">
         <v>60</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q29" s="4">
         <f t="shared" si="1"/>
         <v>44.971166380090757</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>-1</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="s">
         <v>60</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q30" s="4">
         <f t="shared" si="1"/>
         <v>1.00727646009076</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>-1</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
         <v>60</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q31" s="4">
         <f t="shared" si="1"/>
         <v>38.963158281090756</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>-1</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
         <v>60</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q32" s="4">
         <f t="shared" si="1"/>
         <v>22.989221420090761</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>4</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>-1</v>
       </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
         <v>60</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q33" s="4">
         <f t="shared" si="1"/>
         <v>59.060374710090763</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>4</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>-1</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
         <v>60</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q34" s="4">
         <f t="shared" si="1"/>
         <v>18.03382558509076</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>2</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>3</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>2</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>2</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>-1</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
         <v>60</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q35" s="4">
         <f t="shared" si="1"/>
         <v>104.99229578409077</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>2</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>-1</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="s">
         <v>60</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q36" s="4">
         <f t="shared" si="1"/>
         <v>80.947844127090775</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>4</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>10</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>3</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
         <v>-1</v>
       </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
         <v>60</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q37" s="4">
         <f t="shared" si="1"/>
         <v>100.08692383509077</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>5</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>6</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="s">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
         <v>20</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q38" s="4">
         <f t="shared" si="1"/>
         <v>137.00861293200001</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>46</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>64</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>8</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="s">
         <v>61</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q39" s="4">
         <f t="shared" si="1"/>
         <v>744.46011953599998</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>48</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>68</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>8</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
         <v>61</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q40" s="4">
         <f t="shared" si="1"/>
         <v>772.49141969599998</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>52</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>2</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="s">
         <v>61</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q41" s="4">
         <f t="shared" si="1"/>
         <v>564.39673132400003</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41">
-        <v>56</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q41" s="4">
-        <f t="shared" si="1"/>
-        <v>536.43820224000001</v>
-      </c>
-    </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -3121,22 +3133,22 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3163,25 +3175,25 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="s">
         <v>61</v>
       </c>
       <c r="Q43" s="4">
         <f t="shared" si="1"/>
-        <v>906.5145815520001</v>
+        <v>536.43820224000001</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3190,7 +3202,7 @@
         <v>4</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3224,15 +3236,15 @@
       </c>
       <c r="Q44" s="4">
         <f t="shared" si="1"/>
-        <v>608.19101525000008</v>
+        <v>906.5145815520001</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>28</v>
@@ -3244,7 +3256,7 @@
         <v>4</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3278,18 +3290,18 @@
       </c>
       <c r="Q45" s="4">
         <f t="shared" si="1"/>
-        <v>652.18084449399998</v>
+        <v>608.19101525000008</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C46">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3298,7 +3310,7 @@
         <v>4</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3332,27 +3344,27 @@
       </c>
       <c r="Q46" s="4">
         <f t="shared" si="1"/>
-        <v>614.23796548999997</v>
+        <v>652.18084449399998</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C47">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3379,19 +3391,19 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="s">
         <v>61</v>
       </c>
       <c r="Q47" s="4">
         <f t="shared" si="1"/>
-        <v>550.41746678200002</v>
+        <v>614.23796548999997</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48">
         <v>40</v>
@@ -3406,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3440,12 +3452,12 @@
       </c>
       <c r="Q48" s="4">
         <f t="shared" si="1"/>
-        <v>582.40729602600004</v>
+        <v>550.41746678200002</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49">
         <v>40</v>
@@ -3460,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3494,12 +3506,12 @@
       </c>
       <c r="Q49" s="4">
         <f t="shared" si="1"/>
-        <v>566.41238140400003</v>
+        <v>582.40729602600004</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50">
         <v>40</v>
@@ -3514,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3548,18 +3560,18 @@
       </c>
       <c r="Q50" s="4">
         <f t="shared" si="1"/>
-        <v>550.41746678200002</v>
+        <v>566.41238140400003</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C51">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3568,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3602,18 +3614,18 @@
       </c>
       <c r="Q51" s="4">
         <f t="shared" si="1"/>
-        <v>658.42334005199996</v>
+        <v>550.41746678200002</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C52">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3622,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3656,12 +3668,12 @@
       </c>
       <c r="Q52" s="4">
         <f t="shared" si="1"/>
-        <v>568.42803148400003</v>
+        <v>658.42334005199996</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53">
         <v>40</v>
@@ -3676,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3710,18 +3722,18 @@
       </c>
       <c r="Q53" s="4">
         <f t="shared" si="1"/>
-        <v>600.41786072800005</v>
+        <v>568.42803148400003</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C54">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3730,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -3764,27 +3776,27 @@
       </c>
       <c r="Q54" s="4">
         <f t="shared" si="1"/>
-        <v>630.35565435399997</v>
+        <v>600.41786072800005</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C55">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3818,27 +3830,27 @@
       </c>
       <c r="Q55" s="4">
         <f t="shared" si="1"/>
-        <v>870.56592208999996</v>
+        <v>630.35565435399997</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C56">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3872,12 +3884,12 @@
       </c>
       <c r="Q56" s="4">
         <f t="shared" si="1"/>
-        <v>600.41786072800005</v>
+        <v>870.56592208999996</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57">
         <v>40</v>
@@ -3931,7 +3943,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58">
         <v>40</v>
@@ -3946,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3978,7 +3990,61 @@
       <c r="P58" t="s">
         <v>61</v>
       </c>
-      <c r="Q58" s="5">
+      <c r="Q58" s="4">
+        <f t="shared" si="1"/>
+        <v>600.41786072800005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59">
+        <v>40</v>
+      </c>
+      <c r="C59">
+        <v>56</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q59" s="5">
         <f t="shared" si="1"/>
         <v>568.42803148400003</v>
       </c>
@@ -3991,10 +4057,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4451,25 +4517,25 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4496,18 +4562,18 @@
         <v>0</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4516,13 +4582,13 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4546,33 +4612,33 @@
         <v>0</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -4593,30 +4659,30 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -4643,30 +4709,30 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -4695,11 +4761,13 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="8"/>
+      <c r="P14" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -4711,49 +4779,49 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4762,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -4780,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -4791,19 +4859,17 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4836,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -4847,7 +4913,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4874,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4886,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -4897,7 +4963,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4921,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4936,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -4947,7 +5013,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4974,7 +5040,7 @@
         <v>2</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -4986,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -4997,13 +5063,13 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -5021,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -5036,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -5047,13 +5113,13 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -5071,13 +5137,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -5086,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -5097,7 +5163,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5121,13 +5187,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -5147,13 +5213,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -5174,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -5197,13 +5263,13 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5236,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -5247,7 +5313,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5274,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -5286,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -5296,14 +5362,14 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>21</v>
+      <c r="A27" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5321,39 +5387,39 @@
         <v>0</v>
       </c>
       <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>-1</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5371,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -5397,13 +5463,13 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5427,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>-1</v>
@@ -5447,7 +5513,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5471,13 +5537,13 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>-1</v>
@@ -5497,19 +5563,19 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5521,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -5533,7 +5599,7 @@
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -5547,7 +5613,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5583,7 +5649,7 @@
         <v>-1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -5597,22 +5663,22 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -5621,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -5647,13 +5713,13 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5662,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -5674,7 +5740,7 @@
         <v>2</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -5697,19 +5763,19 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -5721,10 +5787,10 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -5746,114 +5812,114 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>-1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>3</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>5</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>6</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" s="8" t="s">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" s="8" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37">
-        <v>46</v>
-      </c>
-      <c r="C37">
-        <v>64</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>8</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <v>46</v>
+      </c>
+      <c r="C38">
         <v>64</v>
-      </c>
-      <c r="B38">
-        <v>48</v>
-      </c>
-      <c r="C38">
-        <v>68</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5897,13 +5963,13 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C39">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5912,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -5947,13 +6013,13 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5962,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5997,7 +6063,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -6047,22 +6113,22 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -6089,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="8" t="s">
         <v>61</v>
@@ -6097,13 +6163,13 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C43">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6112,7 +6178,7 @@
         <v>4</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -6147,10 +6213,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>28</v>
@@ -6162,7 +6228,7 @@
         <v>4</v>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -6197,13 +6263,13 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6212,7 +6278,7 @@
         <v>4</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -6247,22 +6313,22 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C46">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -6289,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="8" t="s">
         <v>61</v>
@@ -6297,7 +6363,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47">
         <v>40</v>
@@ -6312,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -6347,7 +6413,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48">
         <v>40</v>
@@ -6362,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -6397,7 +6463,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49">
         <v>40</v>
@@ -6412,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -6447,13 +6513,13 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C50">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6462,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -6497,13 +6563,13 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C51">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6512,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -6547,7 +6613,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52">
         <v>40</v>
@@ -6562,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -6597,13 +6663,13 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C53">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -6612,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -6647,22 +6713,22 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C54">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -6697,22 +6763,22 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C55">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -6747,7 +6813,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B56">
         <v>40</v>
@@ -6797,7 +6863,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B57">
         <v>40</v>
@@ -6812,36 +6878,86 @@
         <v>0</v>
       </c>
       <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58">
+        <v>40</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
         <v>2</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="s">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6956,10 +7072,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7095,6 +7211,17 @@
         <v>50</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>42607</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/inst/doc/xlsx/LOBSTAHS_basic_component_matrix.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_basic_component_matrix.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcollins/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcollins/Code/LOBSTAHS/inst/doc/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="560" windowWidth="26440" windowHeight="15700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1520" yWindow="460" windowWidth="25040" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Elemental composition matrix" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="166">
   <si>
     <t>DGCC</t>
   </si>
@@ -206,130 +206,328 @@
     <t>Added column "Lipid_class"</t>
   </si>
   <si>
+    <t>pigment</t>
+  </si>
+  <si>
+    <t>Chl_a</t>
+  </si>
+  <si>
+    <t>19prime_but_fuco</t>
+  </si>
+  <si>
+    <t>19prime_hex_fuco</t>
+  </si>
+  <si>
+    <t>Allox</t>
+  </si>
+  <si>
+    <t>Alpha_carotene</t>
+  </si>
+  <si>
+    <t>Beta_carotenes</t>
+  </si>
+  <si>
+    <t>Chl_b</t>
+  </si>
+  <si>
+    <t>Chl_c2</t>
+  </si>
+  <si>
+    <t>Chl_c3</t>
+  </si>
+  <si>
+    <t>Chlide_a</t>
+  </si>
+  <si>
+    <t>Croco</t>
+  </si>
+  <si>
+    <t>Dd_Ddc</t>
+  </si>
+  <si>
+    <t>Dt</t>
+  </si>
+  <si>
+    <t>Echin</t>
+  </si>
+  <si>
+    <t>Fuco</t>
+  </si>
+  <si>
+    <t>Lut</t>
+  </si>
+  <si>
+    <t>Neox_Nos</t>
+  </si>
+  <si>
+    <t>Peri</t>
+  </si>
+  <si>
+    <t>Pheophytin_a</t>
+  </si>
+  <si>
+    <t>Pras</t>
+  </si>
+  <si>
+    <t>Viol</t>
+  </si>
+  <si>
+    <t>Zeax</t>
+  </si>
+  <si>
+    <t>Fixed errors with SQDG, PG compositions</t>
+  </si>
+  <si>
+    <t>[M+NaAc-H]-</t>
+  </si>
+  <si>
+    <t>IP_DAG</t>
+  </si>
+  <si>
+    <t>To generate a .csv version of the worksheet for use with LOBSTAHS:</t>
+  </si>
+  <si>
+    <t>Latest versions of all pipeline scripts and required files available at https://github.com/vanmooylipidomics/LOBSTAHS, or upon demand from Dr. Fredricks</t>
+  </si>
+  <si>
+    <t>If making any additions or modifications to the default set of entires, do these in the worksheet on the first tab; then, paste any of the additional/modified entries "as values" into the third tab before saving</t>
+  </si>
+  <si>
+    <t>Updated some comments</t>
+  </si>
+  <si>
+    <t>Composition matrix for computing exact masses of lipid and oxylipin analytes using in silico simulation</t>
+  </si>
+  <si>
+    <t>Can be used to generate "LOBSTAHS_basic_component_matrix.csv," required for lipid-oxlipid-oxyipin database generation in the LOBSTAHS lipidomics screening pipeline</t>
+  </si>
+  <si>
+    <t>Export the worksheet as a .csv file with the filename "LOBSTAHS_basic_component_matrix.csv"; this file can be sourced by specifying the file path in the LOBSTAHS database generation function</t>
+  </si>
+  <si>
+    <t>Fixed error in DNPPE components</t>
+  </si>
+  <si>
+    <t>LPC</t>
+  </si>
+  <si>
+    <t>IP_MAG</t>
+  </si>
+  <si>
+    <t>Added class IP_MAG and a LPC class to calculate lyso species</t>
+  </si>
+  <si>
+    <t>DB_gen_type</t>
+  </si>
+  <si>
+    <t>Unique_species</t>
+  </si>
+  <si>
+    <t>Adduct_hierarchy_lookup_class</t>
+  </si>
+  <si>
+    <t>Acyl_iteration</t>
+  </si>
+  <si>
+    <t>Scytonemin</t>
+  </si>
+  <si>
+    <t>Red_scytonemin</t>
+  </si>
+  <si>
+    <t>BLL</t>
+  </si>
+  <si>
+    <t>PDPT</t>
+  </si>
+  <si>
+    <t>vGSL</t>
+  </si>
+  <si>
+    <t>sGSL</t>
+  </si>
+  <si>
+    <t>hGSL</t>
+  </si>
+  <si>
+    <t>hapGSL(t40:0)</t>
+  </si>
+  <si>
+    <t>hapGSL</t>
+  </si>
+  <si>
+    <t>hapGSL(t40:1)</t>
+  </si>
+  <si>
+    <t>S_DGCC</t>
+  </si>
+  <si>
+    <t>hapCER(d18:1/22:0(OH))</t>
+  </si>
+  <si>
+    <t>hapCER</t>
+  </si>
+  <si>
+    <t>hapCER(d18:1/22:1(OH))</t>
+  </si>
+  <si>
+    <t>fungalGSL</t>
+  </si>
+  <si>
+    <t>PQ9</t>
+  </si>
+  <si>
+    <t>PQ9OH</t>
+  </si>
+  <si>
+    <t>PQ9OH2</t>
+  </si>
+  <si>
+    <t>UQ1:1</t>
+  </si>
+  <si>
+    <t>UQ2:2</t>
+  </si>
+  <si>
+    <t>UQ3:3</t>
+  </si>
+  <si>
+    <t>UQ4:4</t>
+  </si>
+  <si>
+    <t>UQ5:5</t>
+  </si>
+  <si>
+    <t>UQ6:6</t>
+  </si>
+  <si>
+    <t>UQ7:7</t>
+  </si>
+  <si>
+    <t>UQ8:8</t>
+  </si>
+  <si>
+    <t>UQ9:9</t>
+  </si>
+  <si>
+    <t>UQ10:10</t>
+  </si>
+  <si>
+    <t>UQ11:11</t>
+  </si>
+  <si>
+    <t>UQ12:12</t>
+  </si>
+  <si>
+    <t>UQ13:13</t>
+  </si>
+  <si>
+    <t>fngGSL(20:1_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(20:0_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(19:1_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(19:0_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(18:1_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(18:0_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(17:1_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(17:0_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(16:1_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(16:0_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(15:1_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(15:0_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(14:1_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(14:0_OH)</t>
+  </si>
+  <si>
+    <t>Added BLL and PDPT as IP_DAG classes and vGSL, sGSL, hGSL, hapGSL, and hapCER as individual species</t>
+  </si>
+  <si>
+    <t>JEH</t>
+  </si>
+  <si>
+    <t>Added scytonemin and reduced scytonemin</t>
+  </si>
+  <si>
+    <t>ubiquinone</t>
+  </si>
+  <si>
+    <t>scytonemin</t>
+  </si>
+  <si>
+    <t>reduced_scytonemin</t>
+  </si>
+  <si>
+    <t>Fixed masses of fungal GSL to match exact masses of neutral species (not [M+H]+ adducts)</t>
+  </si>
+  <si>
+    <t>Changed some nomenclature to be more descriptive</t>
+  </si>
+  <si>
+    <t>See Collins, J. R., B. R. Edwards, H. F. Fredricks, and B. A. S. Van Mooy. 2016. LOBSTAHS: An adduct-based lipidomics strategy for discovery and identification of oxidative stress biomarkers. Analytical Chemistry 88: 7154-7162; doi:10.1021/acs.analchem.6b01260</t>
+  </si>
+  <si>
+    <t>Renamed file; renamed column "Lipid_class" to "Species_class"</t>
+  </si>
+  <si>
+    <t>Renamed "SDGCC" to "S_DGCC"</t>
+  </si>
+  <si>
+    <t>Added SDGCC as IP_DAG class and fungal GSLs, ubiquinones (UQ) and plastoquinones (PQ) as individual species</t>
+  </si>
+  <si>
+    <t>plastoquinone_9</t>
+  </si>
+  <si>
+    <t>plastoquinone_9OH</t>
+  </si>
+  <si>
+    <t>plastoquinone_9OH2</t>
+  </si>
+  <si>
     <t>Species_class</t>
   </si>
   <si>
+    <t>basic_component</t>
+  </si>
+  <si>
     <t>adduct_neg</t>
   </si>
   <si>
     <t>adduct_pos</t>
   </si>
   <si>
-    <t>pigment</t>
-  </si>
-  <si>
-    <t>Chl_a</t>
-  </si>
-  <si>
-    <t>19prime_but_fuco</t>
-  </si>
-  <si>
-    <t>19prime_hex_fuco</t>
-  </si>
-  <si>
-    <t>Allox</t>
-  </si>
-  <si>
-    <t>Alpha_carotene</t>
-  </si>
-  <si>
-    <t>Beta_carotenes</t>
-  </si>
-  <si>
-    <t>Chl_b</t>
-  </si>
-  <si>
-    <t>Chl_c2</t>
-  </si>
-  <si>
-    <t>Chl_c3</t>
-  </si>
-  <si>
-    <t>Chlide_a</t>
-  </si>
-  <si>
-    <t>Croco</t>
-  </si>
-  <si>
-    <t>Dd_Ddc</t>
-  </si>
-  <si>
-    <t>Dt</t>
-  </si>
-  <si>
-    <t>Echin</t>
-  </si>
-  <si>
-    <t>Fuco</t>
-  </si>
-  <si>
-    <t>Lut</t>
-  </si>
-  <si>
-    <t>Neox_Nos</t>
-  </si>
-  <si>
-    <t>Peri</t>
-  </si>
-  <si>
-    <t>Pheophytin_a</t>
-  </si>
-  <si>
-    <t>Pras</t>
-  </si>
-  <si>
-    <t>Viol</t>
-  </si>
-  <si>
-    <t>Zeax</t>
-  </si>
-  <si>
-    <t>Fixed errors with SQDG, PG compositions</t>
-  </si>
-  <si>
-    <t>[M+NaAc-H]-</t>
-  </si>
-  <si>
-    <t>IP_DAG</t>
-  </si>
-  <si>
-    <t>To generate a .csv version of the worksheet for use with LOBSTAHS:</t>
-  </si>
-  <si>
-    <t>Latest versions of all pipeline scripts and required files available at https://github.com/vanmooylipidomics/LOBSTAHS, or upon demand from Dr. Fredricks</t>
-  </si>
-  <si>
-    <t>If making any additions or modifications to the default set of entires, do these in the worksheet on the first tab; then, paste any of the additional/modified entries "as values" into the third tab before saving</t>
-  </si>
-  <si>
-    <t>Updated some comments</t>
-  </si>
-  <si>
-    <t>Composition matrix for computing exact masses of lipid and oxylipin analytes using in silico simulation</t>
-  </si>
-  <si>
-    <t>Can be used to generate "LOBSTAHS_basic_component_matrix.csv," required for lipid-oxlipid-oxyipin database generation in the LOBSTAHS lipidomics screening pipeline</t>
-  </si>
-  <si>
-    <t>Export the worksheet as a .csv file with the filename "LOBSTAHS_basic_component_matrix.csv"; this file can be sourced by specifying the file path in the LOBSTAHS database generation function</t>
-  </si>
-  <si>
-    <t>Renamed file</t>
-  </si>
-  <si>
-    <t>Fixed error in DNPPE components</t>
-  </si>
-  <si>
-    <t>See Collins, J.R., B.R. Edwards, H.F. Fredricks, and B.A.S. Van Mooy, 2016, "LOBSTAHS: A Novel Lipidomics Strategy for Semi-Untargeted Discovery and Identification of Oxidative Stress Biomarkers"</t>
-  </si>
-  <si>
-    <t>LPC</t>
-  </si>
-  <si>
-    <t>IP_MAG</t>
-  </si>
-  <si>
-    <t>Added class IP_MAG and a LPC class to calculate lyso species</t>
+    <t>Added fields "Adduct_hierarchy_lookup_class" and "DB_gen_type" in preparation for modifications to code in generateLOBdbase.R</t>
+  </si>
+  <si>
+    <t>Note: An adduct hierarchy must be specified in the adduct ion hierarchy matrix for compound or compound class used in "Adduct_hierarchy_lookup_class"</t>
+  </si>
+  <si>
+    <t>Modified "Adduct_hierarchy_lookup_class" to index directly on the field names in the adduct ion hierarchy matrix</t>
   </si>
 </sst>
 </file>
@@ -467,12 +665,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -865,12 +1063,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="560" activePane="bottomLeft"/>
-      <selection activeCell="O2" sqref="O2"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="1080" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection activeCell="R3" sqref="R3"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,10 +1076,12 @@
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="4.5" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="23.5" customWidth="1"/>
+    <col min="17" max="17" width="19.5" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>12</v>
       </c>
@@ -916,18 +1116,18 @@
         <v>5.4857990924000002E-4</v>
       </c>
       <c r="M1">
-        <f>Q16</f>
+        <f>S16</f>
         <v>41.026549125000003</v>
       </c>
       <c r="N1">
-        <f>Q17</f>
+        <f>S17</f>
         <v>59.013304364</v>
       </c>
       <c r="O1">
         <v>23.985045</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -971,13 +1171,19 @@
         <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="Q2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1026,12 +1232,18 @@
       <c r="P3" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q15" si="0">B3*$B$1+C3*$C$1+D3*$D$1+E3*$E$1+F3*$F$1+G3*$G$1+H3*$H$1+I3*$I$1+J3*$J$1+K3*$K$1+L3*$L$1+M3*$M$1+N3*$N$1+O3*$O$1</f>
+      <c r="Q3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" ref="S3:S15" si="0">B3*$B$1+C3*$C$1+D3*$D$1+E3*$E$1+F3*$F$1+G3*$G$1+H3*$H$1+I3*$I$1+J3*$J$1+K3*$K$1+L3*$L$1+M3*$M$1+N3*$N$1+O3*$O$1</f>
         <v>32.997654283999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1078,14 +1290,20 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" s="4">
+        <v>83</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="4">
         <f t="shared" si="0"/>
         <v>281.111066741</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1132,14 +1350,20 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="4">
+        <v>83</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" s="4">
         <f t="shared" si="0"/>
         <v>446.12717036999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1186,14 +1410,20 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q6" s="4">
+        <v>83</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="4">
         <f t="shared" si="0"/>
         <v>265.11615211899999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1242,12 +1472,18 @@
       <c r="P7" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>96</v>
+      </c>
+      <c r="S7" s="4">
         <f t="shared" si="0"/>
         <v>857.51666203100001</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1294,14 +1530,20 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" s="4">
+        <v>83</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="4">
         <f t="shared" si="0"/>
         <v>245.03005297300001</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1348,14 +1590,20 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q9" s="4">
+        <v>83</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="4">
         <f t="shared" si="0"/>
         <v>276.024633252</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1402,16 +1650,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" s="4">
+        <v>83</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="4">
         <f t="shared" si="0"/>
         <v>287.07700321300001</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -1456,14 +1710,20 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" t="s">
         <v>98</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="S11" s="4">
         <f t="shared" si="0"/>
         <v>272.089913631</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1512,12 +1772,18 @@
       <c r="P12" t="s">
         <v>7</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" s="4">
         <f t="shared" si="0"/>
         <v>15.994914622</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1563,17 +1829,23 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="4">
+      <c r="P13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="4">
         <f t="shared" si="0"/>
         <v>348.03624679400002</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>55</v>
@@ -1618,14 +1890,20 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q14" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R14" t="s">
+        <v>96</v>
+      </c>
+      <c r="S14" s="4">
         <f t="shared" si="0"/>
         <v>892.53531701000009</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1671,15 +1949,21 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q15" s="4">
+      <c r="P15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" s="4">
         <f t="shared" si="0"/>
         <v>284.07434685999999</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1725,12 +2009,15 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="P16" t="s">
+        <v>160</v>
+      </c>
+      <c r="S16" s="4">
         <f>B16*$B$1+C16*$C$1+D16*$D$1+E16*$E$1+F16*$F$1+G16*$G$1+H16*$H$1+I16*$I$1+J16*$J$1+K16*$K$1+L16*$L$1</f>
         <v>41.026549125000003</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1776,12 +2063,15 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="P17" t="s">
+        <v>160</v>
+      </c>
+      <c r="S17" s="4">
         <f>B17*$B$1+C17*$C$1+D17*$D$1+E17*$E$1+F17*$F$1+G17*$G$1+H17*$H$1+I17*$I$1+J17*$J$1+K17*$K$1+L17*$L$1</f>
         <v>59.013304364</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1828,14 +2118,14 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q18" s="4">
-        <f t="shared" ref="Q18:Q59" si="1">B18*$B$1+C18*$C$1+D18*$D$1+E18*$E$1+F18*$F$1+G18*$G$1+H18*$H$1+I18*$I$1+J18*$J$1+K18*$K$1+L18*$L$1+M18*$M$1+N18*$N$1+O18*$O$1</f>
+        <v>161</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" ref="S18:S81" si="1">B18*$B$1+C18*$C$1+D18*$D$1+E18*$E$1+F18*$F$1+G18*$G$1+H18*$H$1+I18*$I$1+J18*$J$1+K18*$K$1+L18*$L$1+M18*$M$1+N18*$N$1+O18*$O$1</f>
         <v>-1.00727646009076</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1882,14 +2172,14 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q19" s="4">
+        <v>161</v>
+      </c>
+      <c r="S19" s="4">
         <f t="shared" si="1"/>
         <v>59.013852943909242</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1936,14 +2226,14 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q20" s="4">
+        <v>161</v>
+      </c>
+      <c r="S20" s="4">
         <f t="shared" si="1"/>
         <v>34.969401286909246</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1990,14 +2280,14 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q21" s="4">
+        <v>161</v>
+      </c>
+      <c r="S21" s="4">
         <f t="shared" si="1"/>
         <v>198.97555001490923</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -2044,16 +2334,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q22" s="4">
+        <v>161</v>
+      </c>
+      <c r="S22" s="4">
         <f t="shared" si="1"/>
         <v>223.02000167190926</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2098,14 +2388,14 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q23" s="4">
+        <v>161</v>
+      </c>
+      <c r="S23" s="4">
         <f t="shared" si="1"/>
         <v>80.995797903909235</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -2152,14 +2442,14 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q24" s="4">
+        <v>161</v>
+      </c>
+      <c r="S24" s="4">
         <f t="shared" si="1"/>
         <v>36.948605360909241</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -2206,14 +2496,14 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q25" s="4">
+        <v>161</v>
+      </c>
+      <c r="S25" s="4">
         <f t="shared" si="1"/>
         <v>20.974668499909239</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -2260,14 +2550,14 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q26" s="4">
+        <v>161</v>
+      </c>
+      <c r="S26" s="4">
         <f t="shared" si="1"/>
         <v>56.951346246909246</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -2314,14 +2604,14 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="4">
+        <v>161</v>
+      </c>
+      <c r="S27" s="4">
         <f t="shared" si="1"/>
         <v>116.97247565090925</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -2368,14 +2658,14 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q28" s="4">
+        <v>161</v>
+      </c>
+      <c r="S28" s="4">
         <f t="shared" si="1"/>
         <v>141.01692730790924</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -2422,14 +2712,14 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q29" s="4">
+        <v>162</v>
+      </c>
+      <c r="S29" s="4">
         <f t="shared" si="1"/>
         <v>44.971166380090757</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -2476,14 +2766,14 @@
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q30" s="4">
+        <v>162</v>
+      </c>
+      <c r="S30" s="4">
         <f t="shared" si="1"/>
         <v>1.00727646009076</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>23</v>
       </c>
@@ -2530,14 +2820,14 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q31" s="4">
+        <v>162</v>
+      </c>
+      <c r="S31" s="4">
         <f t="shared" si="1"/>
         <v>38.963158281090756</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
@@ -2584,14 +2874,14 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q32" s="4">
+        <v>162</v>
+      </c>
+      <c r="S32" s="4">
         <f t="shared" si="1"/>
         <v>22.989221420090761</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
@@ -2638,14 +2928,14 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q33" s="4">
+        <v>162</v>
+      </c>
+      <c r="S33" s="4">
         <f t="shared" si="1"/>
         <v>59.060374710090763</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
@@ -2692,14 +2982,14 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q34" s="4">
+        <v>162</v>
+      </c>
+      <c r="S34" s="4">
         <f t="shared" si="1"/>
         <v>18.03382558509076</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
@@ -2746,14 +3036,14 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q35" s="4">
+        <v>162</v>
+      </c>
+      <c r="S35" s="4">
         <f t="shared" si="1"/>
         <v>104.99229578409077</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
@@ -2800,14 +3090,14 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q36" s="4">
+        <v>162</v>
+      </c>
+      <c r="S36" s="4">
         <f t="shared" si="1"/>
         <v>80.947844127090775</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>28</v>
       </c>
@@ -2854,14 +3144,14 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q37" s="4">
+        <v>162</v>
+      </c>
+      <c r="S37" s="4">
         <f t="shared" si="1"/>
         <v>100.08692383509077</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -2910,14 +3200,20 @@
       <c r="P38" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" t="s">
+        <v>98</v>
+      </c>
+      <c r="S38" s="4">
         <f t="shared" si="1"/>
         <v>137.00861293200001</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B39">
         <v>46</v>
@@ -2962,16 +3258,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q39" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>58</v>
+      </c>
+      <c r="R39" t="s">
+        <v>96</v>
+      </c>
+      <c r="S39" s="4">
         <f t="shared" si="1"/>
         <v>744.46011953599998</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B40">
         <v>48</v>
@@ -3016,16 +3318,22 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q40" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>58</v>
+      </c>
+      <c r="R40" t="s">
+        <v>96</v>
+      </c>
+      <c r="S40" s="4">
         <f t="shared" si="1"/>
         <v>772.49141969599998</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -3070,16 +3378,22 @@
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q41" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>58</v>
+      </c>
+      <c r="R41" t="s">
+        <v>96</v>
+      </c>
+      <c r="S41" s="4">
         <f t="shared" si="1"/>
         <v>564.39673132400003</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -3124,16 +3438,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q42" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>58</v>
+      </c>
+      <c r="R42" t="s">
+        <v>96</v>
+      </c>
+      <c r="S42" s="4">
         <f t="shared" si="1"/>
         <v>536.43820224000001</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>40</v>
@@ -3178,16 +3498,22 @@
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q43" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>58</v>
+      </c>
+      <c r="R43" t="s">
+        <v>96</v>
+      </c>
+      <c r="S43" s="4">
         <f t="shared" si="1"/>
         <v>536.43820224000001</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>55</v>
@@ -3232,16 +3558,22 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q44" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>58</v>
+      </c>
+      <c r="R44" t="s">
+        <v>96</v>
+      </c>
+      <c r="S44" s="4">
         <f t="shared" si="1"/>
         <v>906.5145815520001</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>35</v>
@@ -3286,16 +3618,22 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q45" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>58</v>
+      </c>
+      <c r="R45" t="s">
+        <v>96</v>
+      </c>
+      <c r="S45" s="4">
         <f t="shared" si="1"/>
         <v>608.19101525000008</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>36</v>
@@ -3340,16 +3678,22 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q46" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>58</v>
+      </c>
+      <c r="R46" t="s">
+        <v>96</v>
+      </c>
+      <c r="S46" s="4">
         <f t="shared" si="1"/>
         <v>652.18084449399998</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>35</v>
@@ -3394,16 +3738,22 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q47" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>58</v>
+      </c>
+      <c r="R47" t="s">
+        <v>96</v>
+      </c>
+      <c r="S47" s="4">
         <f t="shared" si="1"/>
         <v>614.23796548999997</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>40</v>
@@ -3448,16 +3798,22 @@
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q48" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>58</v>
+      </c>
+      <c r="R48" t="s">
+        <v>96</v>
+      </c>
+      <c r="S48" s="4">
         <f t="shared" si="1"/>
         <v>550.41746678200002</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>40</v>
@@ -3502,16 +3858,22 @@
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q49" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>58</v>
+      </c>
+      <c r="R49" t="s">
+        <v>96</v>
+      </c>
+      <c r="S49" s="4">
         <f t="shared" si="1"/>
         <v>582.40729602600004</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B50">
         <v>40</v>
@@ -3556,16 +3918,22 @@
         <v>0</v>
       </c>
       <c r="P50" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q50" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>58</v>
+      </c>
+      <c r="R50" t="s">
+        <v>96</v>
+      </c>
+      <c r="S50" s="4">
         <f t="shared" si="1"/>
         <v>566.41238140400003</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -3610,16 +3978,22 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q51" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>58</v>
+      </c>
+      <c r="R51" t="s">
+        <v>96</v>
+      </c>
+      <c r="S51" s="4">
         <f t="shared" si="1"/>
         <v>550.41746678200002</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B52">
         <v>42</v>
@@ -3664,16 +4038,22 @@
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q52" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>58</v>
+      </c>
+      <c r="R52" t="s">
+        <v>96</v>
+      </c>
+      <c r="S52" s="4">
         <f t="shared" si="1"/>
         <v>658.42334005199996</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B53">
         <v>40</v>
@@ -3718,16 +4098,22 @@
         <v>0</v>
       </c>
       <c r="P53" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q53" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>58</v>
+      </c>
+      <c r="R53" t="s">
+        <v>96</v>
+      </c>
+      <c r="S53" s="4">
         <f t="shared" si="1"/>
         <v>568.42803148400003</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B54">
         <v>40</v>
@@ -3771,17 +4157,23 @@
       <c r="O54">
         <v>0</v>
       </c>
-      <c r="P54" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q54" s="4">
+      <c r="P54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R54" t="s">
+        <v>96</v>
+      </c>
+      <c r="S54" s="4">
         <f t="shared" si="1"/>
         <v>600.41786072800005</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B55">
         <v>39</v>
@@ -3825,17 +4217,23 @@
       <c r="O55">
         <v>0</v>
       </c>
-      <c r="P55" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q55" s="4">
+      <c r="P55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R55" t="s">
+        <v>96</v>
+      </c>
+      <c r="S55" s="4">
         <f t="shared" si="1"/>
         <v>630.35565435399997</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -3879,17 +4277,23 @@
       <c r="O56">
         <v>0</v>
       </c>
-      <c r="P56" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q56" s="4">
+      <c r="P56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R56" t="s">
+        <v>96</v>
+      </c>
+      <c r="S56" s="4">
         <f t="shared" si="1"/>
         <v>870.56592208999996</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B57">
         <v>40</v>
@@ -3933,17 +4337,23 @@
       <c r="O57">
         <v>0</v>
       </c>
-      <c r="P57" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q57" s="4">
+      <c r="P57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R57" t="s">
+        <v>96</v>
+      </c>
+      <c r="S57" s="4">
         <f t="shared" si="1"/>
         <v>600.41786072800005</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B58">
         <v>40</v>
@@ -3987,17 +4397,23 @@
       <c r="O58">
         <v>0</v>
       </c>
-      <c r="P58" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q58" s="4">
+      <c r="P58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R58" t="s">
+        <v>96</v>
+      </c>
+      <c r="S58" s="4">
         <f t="shared" si="1"/>
         <v>600.41786072800005</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B59">
         <v>40</v>
@@ -4041,13 +4457,2579 @@
       <c r="O59">
         <v>0</v>
       </c>
-      <c r="P59" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q59" s="5">
+      <c r="P59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R59" t="s">
+        <v>96</v>
+      </c>
+      <c r="S59" s="4">
         <f t="shared" si="1"/>
         <v>568.42803148400003</v>
       </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60">
+        <v>36</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>148</v>
+      </c>
+      <c r="R60" t="s">
+        <v>96</v>
+      </c>
+      <c r="S60" s="4">
+        <f t="shared" si="1"/>
+        <v>544.14230729799999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61">
+        <v>36</v>
+      </c>
+      <c r="C61">
+        <v>22</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>149</v>
+      </c>
+      <c r="R61" t="s">
+        <v>96</v>
+      </c>
+      <c r="S61" s="4">
+        <f t="shared" si="1"/>
+        <v>546.15795737799999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>17</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>101</v>
+      </c>
+      <c r="R62" t="s">
+        <v>98</v>
+      </c>
+      <c r="S62" s="4">
+        <f t="shared" si="1"/>
+        <v>279.095416661</v>
+      </c>
+      <c r="T62" s="4"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>102</v>
+      </c>
+      <c r="R63" t="s">
+        <v>98</v>
+      </c>
+      <c r="S63" s="4">
+        <f t="shared" si="1"/>
+        <v>272.04834561400003</v>
+      </c>
+      <c r="T63" s="4"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>18</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>109</v>
+      </c>
+      <c r="R64" t="s">
+        <v>98</v>
+      </c>
+      <c r="S64" s="4">
+        <f t="shared" si="1"/>
+        <v>266.08240914200002</v>
+      </c>
+      <c r="T64" s="4"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65">
+        <v>45</v>
+      </c>
+      <c r="C65">
+        <v>89</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>103</v>
+      </c>
+      <c r="R65" t="s">
+        <v>96</v>
+      </c>
+      <c r="S65" s="4">
+        <f t="shared" si="1"/>
+        <v>803.64864878499998</v>
+      </c>
+      <c r="T65" s="4"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66">
+        <v>49</v>
+      </c>
+      <c r="C66">
+        <v>91</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>104</v>
+      </c>
+      <c r="R66" t="s">
+        <v>96</v>
+      </c>
+      <c r="S66" s="4">
+        <f t="shared" si="1"/>
+        <v>869.65921348699999</v>
+      </c>
+      <c r="T66" s="4"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67">
+        <v>47</v>
+      </c>
+      <c r="C67">
+        <v>83</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>105</v>
+      </c>
+      <c r="R67" t="s">
+        <v>96</v>
+      </c>
+      <c r="S67" s="4">
+        <f t="shared" si="1"/>
+        <v>805.60678392299997</v>
+      </c>
+      <c r="T67" s="4"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68">
+        <v>46</v>
+      </c>
+      <c r="C68">
+        <v>91</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>107</v>
+      </c>
+      <c r="R68" t="s">
+        <v>96</v>
+      </c>
+      <c r="S68" s="4">
+        <f t="shared" si="1"/>
+        <v>801.66938424299997</v>
+      </c>
+      <c r="T68" s="4"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69">
+        <v>46</v>
+      </c>
+      <c r="C69">
+        <v>89</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>107</v>
+      </c>
+      <c r="R69" t="s">
+        <v>96</v>
+      </c>
+      <c r="S69" s="4">
+        <f t="shared" si="1"/>
+        <v>799.65373416299997</v>
+      </c>
+      <c r="T69" s="4"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>79</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>111</v>
+      </c>
+      <c r="R70" t="s">
+        <v>96</v>
+      </c>
+      <c r="S70" s="4">
+        <f t="shared" si="1"/>
+        <v>637.60091065300003</v>
+      </c>
+      <c r="T70" s="4"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71">
+        <v>40</v>
+      </c>
+      <c r="C71">
+        <v>77</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>111</v>
+      </c>
+      <c r="R71" t="s">
+        <v>96</v>
+      </c>
+      <c r="S71" s="4">
+        <f t="shared" si="1"/>
+        <v>635.58526057300003</v>
+      </c>
+      <c r="T71" s="4"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72">
+        <v>45</v>
+      </c>
+      <c r="C72">
+        <v>83</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>113</v>
+      </c>
+      <c r="R72" t="s">
+        <v>96</v>
+      </c>
+      <c r="S72" s="4">
+        <f t="shared" si="1"/>
+        <v>781.60678392299997</v>
+      </c>
+      <c r="T72" s="4"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73">
+        <v>45</v>
+      </c>
+      <c r="C73">
+        <v>85</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>113</v>
+      </c>
+      <c r="R73" t="s">
+        <v>96</v>
+      </c>
+      <c r="S73" s="4">
+        <f t="shared" si="1"/>
+        <v>783.62243400299997</v>
+      </c>
+      <c r="T73" s="4"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74">
+        <v>44</v>
+      </c>
+      <c r="C74">
+        <v>81</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>113</v>
+      </c>
+      <c r="R74" t="s">
+        <v>96</v>
+      </c>
+      <c r="S74" s="4">
+        <f t="shared" si="1"/>
+        <v>767.59113384299997</v>
+      </c>
+      <c r="T74" s="4"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75">
+        <v>44</v>
+      </c>
+      <c r="C75">
+        <v>83</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>113</v>
+      </c>
+      <c r="R75" t="s">
+        <v>96</v>
+      </c>
+      <c r="S75" s="4">
+        <f t="shared" si="1"/>
+        <v>769.60678392299997</v>
+      </c>
+      <c r="T75" s="4"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76">
+        <v>43</v>
+      </c>
+      <c r="C76">
+        <v>79</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>113</v>
+      </c>
+      <c r="R76" t="s">
+        <v>96</v>
+      </c>
+      <c r="S76" s="4">
+        <f t="shared" si="1"/>
+        <v>753.57548376299997</v>
+      </c>
+      <c r="T76" s="4"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77">
+        <v>43</v>
+      </c>
+      <c r="C77">
+        <v>81</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>113</v>
+      </c>
+      <c r="R77" t="s">
+        <v>96</v>
+      </c>
+      <c r="S77" s="4">
+        <f t="shared" si="1"/>
+        <v>755.59113384299997</v>
+      </c>
+      <c r="T77" s="4"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78">
+        <v>42</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>113</v>
+      </c>
+      <c r="R78" t="s">
+        <v>96</v>
+      </c>
+      <c r="S78" s="4">
+        <f t="shared" si="1"/>
+        <v>739.55983368299997</v>
+      </c>
+      <c r="T78" s="4"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79">
+        <v>42</v>
+      </c>
+      <c r="C79">
+        <v>79</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>9</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>113</v>
+      </c>
+      <c r="R79" t="s">
+        <v>96</v>
+      </c>
+      <c r="S79" s="4">
+        <f t="shared" si="1"/>
+        <v>741.57548376299997</v>
+      </c>
+      <c r="T79" s="4"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80">
+        <v>41</v>
+      </c>
+      <c r="C80">
+        <v>75</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>9</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>113</v>
+      </c>
+      <c r="R80" t="s">
+        <v>96</v>
+      </c>
+      <c r="S80" s="4">
+        <f t="shared" si="1"/>
+        <v>725.54418360299996</v>
+      </c>
+      <c r="T80" s="4"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81">
+        <v>41</v>
+      </c>
+      <c r="C81">
+        <v>77</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>9</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>113</v>
+      </c>
+      <c r="R81" t="s">
+        <v>96</v>
+      </c>
+      <c r="S81" s="4">
+        <f t="shared" si="1"/>
+        <v>727.55983368299997</v>
+      </c>
+      <c r="T81" s="4"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82">
+        <v>40</v>
+      </c>
+      <c r="C82">
+        <v>73</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>113</v>
+      </c>
+      <c r="R82" t="s">
+        <v>96</v>
+      </c>
+      <c r="S82" s="4">
+        <f t="shared" ref="S82:S101" si="2">B82*$B$1+C82*$C$1+D82*$D$1+E82*$E$1+F82*$F$1+G82*$G$1+H82*$H$1+I82*$I$1+J82*$J$1+K82*$K$1+L82*$L$1+M82*$M$1+N82*$N$1+O82*$O$1</f>
+        <v>711.52853352299996</v>
+      </c>
+      <c r="T82" s="4"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83">
+        <v>40</v>
+      </c>
+      <c r="C83">
+        <v>75</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>113</v>
+      </c>
+      <c r="R83" t="s">
+        <v>96</v>
+      </c>
+      <c r="S83" s="4">
+        <f t="shared" si="2"/>
+        <v>713.54418360299996</v>
+      </c>
+      <c r="T83" s="4"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84">
+        <v>39</v>
+      </c>
+      <c r="C84">
+        <v>71</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>113</v>
+      </c>
+      <c r="R84" t="s">
+        <v>96</v>
+      </c>
+      <c r="S84" s="4">
+        <f t="shared" si="2"/>
+        <v>697.51288344299996</v>
+      </c>
+      <c r="T84" s="4"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85">
+        <v>39</v>
+      </c>
+      <c r="C85">
+        <v>73</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>113</v>
+      </c>
+      <c r="R85" t="s">
+        <v>96</v>
+      </c>
+      <c r="S85" s="4">
+        <f t="shared" si="2"/>
+        <v>699.52853352299996</v>
+      </c>
+      <c r="T85" s="4"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86">
+        <v>53</v>
+      </c>
+      <c r="C86">
+        <v>80</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>156</v>
+      </c>
+      <c r="R86" t="s">
+        <v>96</v>
+      </c>
+      <c r="S86" s="4">
+        <f t="shared" si="2"/>
+        <v>748.61583244400003</v>
+      </c>
+      <c r="T86" s="4"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87">
+        <v>53</v>
+      </c>
+      <c r="C87">
+        <v>80</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>157</v>
+      </c>
+      <c r="R87" t="s">
+        <v>96</v>
+      </c>
+      <c r="S87" s="4">
+        <f t="shared" si="2"/>
+        <v>764.61074706600004</v>
+      </c>
+      <c r="T87" s="4"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88">
+        <v>53</v>
+      </c>
+      <c r="C88">
+        <v>80</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>158</v>
+      </c>
+      <c r="R88" t="s">
+        <v>96</v>
+      </c>
+      <c r="S88" s="4">
+        <f t="shared" si="2"/>
+        <v>780.60566168800005</v>
+      </c>
+      <c r="T88" s="4"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A89" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89">
+        <v>14</v>
+      </c>
+      <c r="C89">
+        <v>18</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>147</v>
+      </c>
+      <c r="R89" t="s">
+        <v>96</v>
+      </c>
+      <c r="S89" s="4">
+        <f t="shared" si="2"/>
+        <v>250.12050920799999</v>
+      </c>
+      <c r="T89" s="4"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A90" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90">
+        <v>19</v>
+      </c>
+      <c r="C90">
+        <v>26</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>147</v>
+      </c>
+      <c r="R90" t="s">
+        <v>96</v>
+      </c>
+      <c r="S90" s="4">
+        <f t="shared" si="2"/>
+        <v>318.18310952799999</v>
+      </c>
+      <c r="T90" s="4"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91">
+        <v>24</v>
+      </c>
+      <c r="C91">
+        <v>34</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>147</v>
+      </c>
+      <c r="R91" t="s">
+        <v>96</v>
+      </c>
+      <c r="S91" s="4">
+        <f t="shared" si="2"/>
+        <v>386.24570984799999</v>
+      </c>
+      <c r="T91" s="4"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A92" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92">
+        <v>29</v>
+      </c>
+      <c r="C92">
+        <v>42</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>147</v>
+      </c>
+      <c r="R92" t="s">
+        <v>96</v>
+      </c>
+      <c r="S92" s="4">
+        <f t="shared" si="2"/>
+        <v>454.30831016799999</v>
+      </c>
+      <c r="T92" s="4"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A93" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93">
+        <v>34</v>
+      </c>
+      <c r="C93">
+        <v>50</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>147</v>
+      </c>
+      <c r="R93" t="s">
+        <v>96</v>
+      </c>
+      <c r="S93" s="4">
+        <f t="shared" si="2"/>
+        <v>522.37091048800005</v>
+      </c>
+      <c r="T93" s="4"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A94" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94">
+        <v>39</v>
+      </c>
+      <c r="C94">
+        <v>58</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>147</v>
+      </c>
+      <c r="R94" t="s">
+        <v>96</v>
+      </c>
+      <c r="S94" s="4">
+        <f t="shared" si="2"/>
+        <v>590.43351080800005</v>
+      </c>
+      <c r="T94" s="4"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A95" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95">
+        <v>44</v>
+      </c>
+      <c r="C95">
+        <v>66</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>147</v>
+      </c>
+      <c r="R95" t="s">
+        <v>96</v>
+      </c>
+      <c r="S95" s="4">
+        <f t="shared" si="2"/>
+        <v>658.49611112800005</v>
+      </c>
+      <c r="T95" s="4"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A96" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96">
+        <v>49</v>
+      </c>
+      <c r="C96">
+        <v>74</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>147</v>
+      </c>
+      <c r="R96" t="s">
+        <v>96</v>
+      </c>
+      <c r="S96" s="4">
+        <f t="shared" si="2"/>
+        <v>726.55871144800005</v>
+      </c>
+      <c r="T96" s="4"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A97" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97">
+        <v>54</v>
+      </c>
+      <c r="C97">
+        <v>82</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>147</v>
+      </c>
+      <c r="R97" t="s">
+        <v>96</v>
+      </c>
+      <c r="S97" s="4">
+        <f t="shared" si="2"/>
+        <v>794.62131176800006</v>
+      </c>
+      <c r="T97" s="4"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A98" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98">
+        <v>59</v>
+      </c>
+      <c r="C98">
+        <v>90</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>147</v>
+      </c>
+      <c r="R98" t="s">
+        <v>96</v>
+      </c>
+      <c r="S98" s="4">
+        <f t="shared" si="2"/>
+        <v>862.68391208800006</v>
+      </c>
+      <c r="T98" s="4"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99">
+        <v>64</v>
+      </c>
+      <c r="C99">
+        <v>98</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>147</v>
+      </c>
+      <c r="R99" t="s">
+        <v>96</v>
+      </c>
+      <c r="S99" s="4">
+        <f t="shared" si="2"/>
+        <v>930.74651240800006</v>
+      </c>
+      <c r="T99" s="4"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A100" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100">
+        <v>69</v>
+      </c>
+      <c r="C100">
+        <v>106</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>147</v>
+      </c>
+      <c r="R100" t="s">
+        <v>96</v>
+      </c>
+      <c r="S100" s="4">
+        <f t="shared" si="2"/>
+        <v>998.80911272800006</v>
+      </c>
+      <c r="T100" s="4"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A101" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>74</v>
+      </c>
+      <c r="C101">
+        <v>114</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>147</v>
+      </c>
+      <c r="R101" t="s">
+        <v>96</v>
+      </c>
+      <c r="S101" s="4">
+        <f t="shared" si="2"/>
+        <v>1066.8717130479999</v>
+      </c>
+      <c r="T101" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4057,18 +7039,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -4111,11 +7094,17 @@
       <c r="O1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -4161,11 +7150,17 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4211,11 +7206,17 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4261,11 +7262,17 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4311,11 +7318,17 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4361,11 +7374,17 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4411,11 +7430,17 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4461,11 +7486,17 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4511,13 +7542,19 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -4561,11 +7598,17 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4611,11 +7654,17 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4661,13 +7710,19 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>55</v>
@@ -4711,11 +7766,17 @@
       <c r="O13">
         <v>1</v>
       </c>
-      <c r="P13" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -4761,11 +7822,17 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -4811,9 +7878,11 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -4859,7 +7928,9 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16" s="8"/>
+      <c r="P16" s="7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -4907,8 +7978,8 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="8" t="s">
-        <v>59</v>
+      <c r="P17" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4957,8 +8028,8 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" s="8" t="s">
-        <v>59</v>
+      <c r="P18" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -5007,8 +8078,8 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" s="8" t="s">
-        <v>59</v>
+      <c r="P19" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -5057,8 +8128,8 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20" s="8" t="s">
-        <v>59</v>
+      <c r="P20" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -5107,13 +8178,13 @@
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21" s="8" t="s">
-        <v>59</v>
+      <c r="P21" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5157,8 +8228,8 @@
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22" s="8" t="s">
-        <v>59</v>
+      <c r="P22" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -5207,8 +8278,8 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23" s="8" t="s">
-        <v>59</v>
+      <c r="P23" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -5257,8 +8328,8 @@
       <c r="O24">
         <v>0</v>
       </c>
-      <c r="P24" s="8" t="s">
-        <v>59</v>
+      <c r="P24" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -5307,8 +8378,8 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25" s="8" t="s">
-        <v>59</v>
+      <c r="P25" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -5357,8 +8428,8 @@
       <c r="O26">
         <v>0</v>
       </c>
-      <c r="P26" s="8" t="s">
-        <v>59</v>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -5407,8 +8478,8 @@
       <c r="O27">
         <v>0</v>
       </c>
-      <c r="P27" s="8" t="s">
-        <v>59</v>
+      <c r="P27" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -5457,8 +8528,8 @@
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="P28" s="8" t="s">
-        <v>60</v>
+      <c r="P28" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -5507,8 +8578,8 @@
       <c r="O29">
         <v>0</v>
       </c>
-      <c r="P29" s="8" t="s">
-        <v>60</v>
+      <c r="P29" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -5557,8 +8628,8 @@
       <c r="O30">
         <v>0</v>
       </c>
-      <c r="P30" s="8" t="s">
-        <v>60</v>
+      <c r="P30" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -5607,8 +8678,8 @@
       <c r="O31">
         <v>0</v>
       </c>
-      <c r="P31" s="8" t="s">
-        <v>60</v>
+      <c r="P31" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -5657,11 +8728,11 @@
       <c r="O32">
         <v>0</v>
       </c>
-      <c r="P32" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -5707,11 +8778,11 @@
       <c r="O33">
         <v>0</v>
       </c>
-      <c r="P33" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
@@ -5757,11 +8828,11 @@
       <c r="O34">
         <v>0</v>
       </c>
-      <c r="P34" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>27</v>
       </c>
@@ -5807,11 +8878,11 @@
       <c r="O35">
         <v>0</v>
       </c>
-      <c r="P35" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P35" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -5857,11 +8928,11 @@
       <c r="O36">
         <v>0</v>
       </c>
-      <c r="P36" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P36" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -5907,13 +8978,19 @@
       <c r="O37">
         <v>0</v>
       </c>
-      <c r="P37" s="8" t="s">
+      <c r="P37" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>46</v>
@@ -5957,13 +9034,19 @@
       <c r="O38">
         <v>0</v>
       </c>
-      <c r="P38" s="8" t="s">
+      <c r="P38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>58</v>
+      </c>
+      <c r="R38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="B39">
         <v>48</v>
@@ -6007,13 +9090,19 @@
       <c r="O39">
         <v>0</v>
       </c>
-      <c r="P39" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>58</v>
+      </c>
+      <c r="R39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -6057,13 +9146,19 @@
       <c r="O40">
         <v>0</v>
       </c>
-      <c r="P40" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>58</v>
+      </c>
+      <c r="R40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -6107,13 +9202,19 @@
       <c r="O41">
         <v>0</v>
       </c>
-      <c r="P41" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>58</v>
+      </c>
+      <c r="R41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -6157,13 +9258,19 @@
       <c r="O42">
         <v>0</v>
       </c>
-      <c r="P42" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>58</v>
+      </c>
+      <c r="R42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>55</v>
@@ -6207,13 +9314,19 @@
       <c r="O43">
         <v>1</v>
       </c>
-      <c r="P43" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>58</v>
+      </c>
+      <c r="R43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>35</v>
@@ -6257,13 +9370,19 @@
       <c r="O44">
         <v>1</v>
       </c>
-      <c r="P44" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>58</v>
+      </c>
+      <c r="R44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>36</v>
@@ -6307,13 +9426,19 @@
       <c r="O45">
         <v>1</v>
       </c>
-      <c r="P45" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>58</v>
+      </c>
+      <c r="R45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>35</v>
@@ -6357,13 +9482,19 @@
       <c r="O46">
         <v>1</v>
       </c>
-      <c r="P46" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>58</v>
+      </c>
+      <c r="R46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>40</v>
@@ -6407,13 +9538,19 @@
       <c r="O47">
         <v>0</v>
       </c>
-      <c r="P47" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>58</v>
+      </c>
+      <c r="R47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>40</v>
@@ -6457,13 +9594,19 @@
       <c r="O48">
         <v>0</v>
       </c>
-      <c r="P48" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>58</v>
+      </c>
+      <c r="R48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>40</v>
@@ -6507,13 +9650,19 @@
       <c r="O49">
         <v>0</v>
       </c>
-      <c r="P49" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>58</v>
+      </c>
+      <c r="R49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>40</v>
@@ -6557,13 +9706,19 @@
       <c r="O50">
         <v>0</v>
       </c>
-      <c r="P50" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>58</v>
+      </c>
+      <c r="R50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>42</v>
@@ -6607,13 +9762,19 @@
       <c r="O51">
         <v>0</v>
       </c>
-      <c r="P51" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>58</v>
+      </c>
+      <c r="R51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>40</v>
@@ -6657,13 +9818,19 @@
       <c r="O52">
         <v>0</v>
       </c>
-      <c r="P52" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>58</v>
+      </c>
+      <c r="R52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>40</v>
@@ -6707,13 +9874,19 @@
       <c r="O53">
         <v>0</v>
       </c>
-      <c r="P53" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>39</v>
@@ -6757,13 +9930,19 @@
       <c r="O54">
         <v>0</v>
       </c>
-      <c r="P54" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P54" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>55</v>
@@ -6807,13 +9986,19 @@
       <c r="O55">
         <v>0</v>
       </c>
-      <c r="P55" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P55" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>40</v>
@@ -6857,13 +10042,19 @@
       <c r="O56">
         <v>0</v>
       </c>
-      <c r="P56" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P56" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>40</v>
@@ -6907,13 +10098,19 @@
       <c r="O57">
         <v>0</v>
       </c>
-      <c r="P57" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>40</v>
@@ -6958,7 +10155,2365 @@
         <v>0</v>
       </c>
       <c r="P58" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59">
+        <v>36</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>148</v>
+      </c>
+      <c r="R59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60">
+        <v>36</v>
+      </c>
+      <c r="C60">
+        <v>22</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>149</v>
+      </c>
+      <c r="R60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>101</v>
+      </c>
+      <c r="R61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>17</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>102</v>
+      </c>
+      <c r="R62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>18</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>109</v>
+      </c>
+      <c r="R63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64">
+        <v>45</v>
+      </c>
+      <c r="C64">
+        <v>89</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>103</v>
+      </c>
+      <c r="R64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65">
+        <v>49</v>
+      </c>
+      <c r="C65">
+        <v>91</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>104</v>
+      </c>
+      <c r="R65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66">
+        <v>47</v>
+      </c>
+      <c r="C66">
+        <v>83</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>105</v>
+      </c>
+      <c r="R66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67">
+        <v>46</v>
+      </c>
+      <c r="C67">
+        <v>91</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>107</v>
+      </c>
+      <c r="R67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68">
+        <v>46</v>
+      </c>
+      <c r="C68">
+        <v>89</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>107</v>
+      </c>
+      <c r="R68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69">
+        <v>40</v>
+      </c>
+      <c r="C69">
+        <v>79</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>111</v>
+      </c>
+      <c r="R69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>77</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>111</v>
+      </c>
+      <c r="R70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71">
+        <v>45</v>
+      </c>
+      <c r="C71">
+        <v>83</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>113</v>
+      </c>
+      <c r="R71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72">
+        <v>45</v>
+      </c>
+      <c r="C72">
+        <v>85</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>113</v>
+      </c>
+      <c r="R72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73">
+        <v>44</v>
+      </c>
+      <c r="C73">
+        <v>81</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>113</v>
+      </c>
+      <c r="R73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74">
+        <v>44</v>
+      </c>
+      <c r="C74">
+        <v>83</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>113</v>
+      </c>
+      <c r="R74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75">
+        <v>43</v>
+      </c>
+      <c r="C75">
+        <v>79</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>113</v>
+      </c>
+      <c r="R75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76">
+        <v>43</v>
+      </c>
+      <c r="C76">
+        <v>81</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>113</v>
+      </c>
+      <c r="R76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77">
+        <v>42</v>
+      </c>
+      <c r="C77">
+        <v>77</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>113</v>
+      </c>
+      <c r="R77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78">
+        <v>42</v>
+      </c>
+      <c r="C78">
+        <v>79</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>113</v>
+      </c>
+      <c r="R78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79">
+        <v>41</v>
+      </c>
+      <c r="C79">
+        <v>75</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>9</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>113</v>
+      </c>
+      <c r="R79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80">
+        <v>41</v>
+      </c>
+      <c r="C80">
+        <v>77</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>9</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>113</v>
+      </c>
+      <c r="R80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81">
+        <v>40</v>
+      </c>
+      <c r="C81">
+        <v>73</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>9</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>113</v>
+      </c>
+      <c r="R81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82">
+        <v>40</v>
+      </c>
+      <c r="C82">
+        <v>75</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>113</v>
+      </c>
+      <c r="R82" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83">
+        <v>39</v>
+      </c>
+      <c r="C83">
+        <v>71</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>113</v>
+      </c>
+      <c r="R83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84">
+        <v>39</v>
+      </c>
+      <c r="C84">
+        <v>73</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>113</v>
+      </c>
+      <c r="R84" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85">
+        <v>53</v>
+      </c>
+      <c r="C85">
+        <v>80</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>156</v>
+      </c>
+      <c r="R85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86">
+        <v>53</v>
+      </c>
+      <c r="C86">
+        <v>80</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>157</v>
+      </c>
+      <c r="R86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87">
+        <v>53</v>
+      </c>
+      <c r="C87">
+        <v>80</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>158</v>
+      </c>
+      <c r="R87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>18</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>147</v>
+      </c>
+      <c r="R88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A89" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89">
+        <v>19</v>
+      </c>
+      <c r="C89">
+        <v>26</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>147</v>
+      </c>
+      <c r="R89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A90" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90">
+        <v>24</v>
+      </c>
+      <c r="C90">
+        <v>34</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>147</v>
+      </c>
+      <c r="R90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91">
+        <v>29</v>
+      </c>
+      <c r="C91">
+        <v>42</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>147</v>
+      </c>
+      <c r="R91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A92" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92">
+        <v>34</v>
+      </c>
+      <c r="C92">
+        <v>50</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>147</v>
+      </c>
+      <c r="R92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A93" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93">
+        <v>39</v>
+      </c>
+      <c r="C93">
+        <v>58</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>147</v>
+      </c>
+      <c r="R93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94">
+        <v>44</v>
+      </c>
+      <c r="C94">
+        <v>66</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>147</v>
+      </c>
+      <c r="R94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A95" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95">
+        <v>49</v>
+      </c>
+      <c r="C95">
+        <v>74</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>147</v>
+      </c>
+      <c r="R95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A96" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96">
+        <v>54</v>
+      </c>
+      <c r="C96">
+        <v>82</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>147</v>
+      </c>
+      <c r="R96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A97" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97">
+        <v>59</v>
+      </c>
+      <c r="C97">
+        <v>90</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>147</v>
+      </c>
+      <c r="R97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A98" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98">
+        <v>64</v>
+      </c>
+      <c r="C98">
+        <v>98</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>147</v>
+      </c>
+      <c r="R98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>69</v>
+      </c>
+      <c r="C99">
+        <v>106</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>147</v>
+      </c>
+      <c r="R99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A100" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100">
+        <v>74</v>
+      </c>
+      <c r="C100">
+        <v>114</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>147</v>
+      </c>
+      <c r="R100" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -7072,26 +12627,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="2" max="2" width="167.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -7101,17 +12656,17 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -7121,104 +12676,197 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>42327</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>42328</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>42329</v>
+      <c r="A17" s="6">
+        <v>42328</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>42344</v>
+      <c r="A18" s="6">
+        <v>42329</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>42344</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>42371</v>
+      <c r="A20" s="6">
+        <v>42344</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
+        <v>42371</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>42607</v>
       </c>
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>42624</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>42709</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>42719</v>
+      </c>
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>42758</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>42758</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>42758</v>
+      </c>
+      <c r="B28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>42758</v>
+      </c>
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>42758</v>
+      </c>
+      <c r="B30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" t="s">
         <v>50</v>
       </c>
     </row>

--- a/inst/doc/xlsx/LOBSTAHS_basic_component_matrix.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_basic_component_matrix.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="168">
   <si>
     <t>DGCC</t>
   </si>
@@ -317,18 +317,9 @@
     <t>Added class IP_MAG and a LPC class to calculate lyso species</t>
   </si>
   <si>
-    <t>DB_gen_type</t>
-  </si>
-  <si>
-    <t>Unique_species</t>
-  </si>
-  <si>
     <t>Adduct_hierarchy_lookup_class</t>
   </si>
   <si>
-    <t>Acyl_iteration</t>
-  </si>
-  <si>
     <t>Scytonemin</t>
   </si>
   <si>
@@ -528,6 +519,21 @@
   </si>
   <si>
     <t>Modified "Adduct_hierarchy_lookup_class" to index directly on the field names in the adduct ion hierarchy matrix</t>
+  </si>
+  <si>
+    <t>Changed the name of "DB_gen_type" to "DB_gen_compound_type" and changed the values to entries that convey more meaning</t>
+  </si>
+  <si>
+    <t>DB_gen_compound_type</t>
+  </si>
+  <si>
+    <t>DB_acyl_iteration</t>
+  </si>
+  <si>
+    <t>DB_unique_species</t>
+  </si>
+  <si>
+    <t>Fixed composition definitions of BLL, PDPT (still verifying PDPT &amp; waiting on verification for S_DGCC)</t>
   </si>
 </sst>
 </file>
@@ -1066,9 +1072,9 @@
   <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="1080" topLeftCell="A2" activePane="bottomLeft"/>
+      <pane ySplit="1080" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="R3" sqref="R3"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,13 +1177,13 @@
         <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R2" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="S2" t="s">
         <v>43</v>
@@ -1236,7 +1242,7 @@
         <v>53</v>
       </c>
       <c r="R3" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" ref="S3:S15" si="0">B3*$B$1+C3*$C$1+D3*$D$1+E3*$E$1+F3*$F$1+G3*$G$1+H3*$H$1+I3*$I$1+J3*$J$1+K3*$K$1+L3*$L$1+M3*$M$1+N3*$N$1+O3*$O$1</f>
@@ -1296,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
@@ -1356,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
@@ -1416,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="0"/>
@@ -1476,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="0"/>
@@ -1536,7 +1542,7 @@
         <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="0"/>
@@ -1596,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="R9" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="S9" s="4">
         <f t="shared" si="0"/>
@@ -1656,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="R10" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="0"/>
@@ -1716,7 +1722,7 @@
         <v>92</v>
       </c>
       <c r="R11" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="S11" s="4">
         <f t="shared" si="0"/>
@@ -1776,7 +1782,7 @@
         <v>7</v>
       </c>
       <c r="R12" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="S12" s="4">
         <f t="shared" si="0"/>
@@ -1836,7 +1842,7 @@
         <v>8</v>
       </c>
       <c r="R13" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="S13" s="4">
         <f t="shared" si="0"/>
@@ -1896,7 +1902,7 @@
         <v>58</v>
       </c>
       <c r="R14" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" si="0"/>
@@ -1956,7 +1962,7 @@
         <v>9</v>
       </c>
       <c r="R15" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="S15" s="4">
         <f t="shared" si="0"/>
@@ -2010,7 +2016,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="R16" t="s">
+        <v>157</v>
       </c>
       <c r="S16" s="4">
         <f>B16*$B$1+C16*$C$1+D16*$D$1+E16*$E$1+F16*$F$1+G16*$G$1+H16*$H$1+I16*$I$1+J16*$J$1+K16*$K$1+L16*$L$1</f>
@@ -2064,7 +2073,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="R17" t="s">
+        <v>157</v>
       </c>
       <c r="S17" s="4">
         <f>B17*$B$1+C17*$C$1+D17*$D$1+E17*$E$1+F17*$F$1+G17*$G$1+H17*$H$1+I17*$I$1+J17*$J$1+K17*$K$1+L17*$L$1</f>
@@ -2118,7 +2130,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="R18" t="s">
+        <v>158</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" ref="S18:S81" si="1">B18*$B$1+C18*$C$1+D18*$D$1+E18*$E$1+F18*$F$1+G18*$G$1+H18*$H$1+I18*$I$1+J18*$J$1+K18*$K$1+L18*$L$1+M18*$M$1+N18*$N$1+O18*$O$1</f>
@@ -2172,7 +2187,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="R19" t="s">
+        <v>158</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="1"/>
@@ -2226,7 +2244,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="R20" t="s">
+        <v>158</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="1"/>
@@ -2280,7 +2301,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="R21" t="s">
+        <v>158</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" si="1"/>
@@ -2334,7 +2358,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="R22" t="s">
+        <v>158</v>
       </c>
       <c r="S22" s="4">
         <f t="shared" si="1"/>
@@ -2388,7 +2415,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="R23" t="s">
+        <v>158</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" si="1"/>
@@ -2442,7 +2472,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="R24" t="s">
+        <v>158</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="1"/>
@@ -2496,7 +2529,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="R25" t="s">
+        <v>158</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="1"/>
@@ -2550,7 +2586,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="R26" t="s">
+        <v>158</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="1"/>
@@ -2604,7 +2643,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="R27" t="s">
+        <v>158</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="1"/>
@@ -2658,7 +2700,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="R28" t="s">
+        <v>158</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="1"/>
@@ -2712,7 +2757,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="R29" t="s">
+        <v>159</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="1"/>
@@ -2766,7 +2814,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="R30" t="s">
+        <v>159</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="1"/>
@@ -2820,7 +2871,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="R31" t="s">
+        <v>159</v>
       </c>
       <c r="S31" s="4">
         <f t="shared" si="1"/>
@@ -2874,7 +2928,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="R32" t="s">
+        <v>159</v>
       </c>
       <c r="S32" s="4">
         <f t="shared" si="1"/>
@@ -2928,7 +2985,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="R33" t="s">
+        <v>159</v>
       </c>
       <c r="S33" s="4">
         <f t="shared" si="1"/>
@@ -2982,7 +3042,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="R34" t="s">
+        <v>159</v>
       </c>
       <c r="S34" s="4">
         <f t="shared" si="1"/>
@@ -3036,7 +3099,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="R35" t="s">
+        <v>159</v>
       </c>
       <c r="S35" s="4">
         <f t="shared" si="1"/>
@@ -3090,7 +3156,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="R36" t="s">
+        <v>159</v>
       </c>
       <c r="S36" s="4">
         <f t="shared" si="1"/>
@@ -3144,7 +3213,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="R37" t="s">
+        <v>159</v>
       </c>
       <c r="S37" s="4">
         <f t="shared" si="1"/>
@@ -3204,7 +3276,7 @@
         <v>20</v>
       </c>
       <c r="R38" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="S38" s="4">
         <f t="shared" si="1"/>
@@ -3264,7 +3336,7 @@
         <v>58</v>
       </c>
       <c r="R39" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S39" s="4">
         <f t="shared" si="1"/>
@@ -3324,7 +3396,7 @@
         <v>58</v>
       </c>
       <c r="R40" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S40" s="4">
         <f t="shared" si="1"/>
@@ -3384,7 +3456,7 @@
         <v>58</v>
       </c>
       <c r="R41" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S41" s="4">
         <f t="shared" si="1"/>
@@ -3444,7 +3516,7 @@
         <v>58</v>
       </c>
       <c r="R42" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S42" s="4">
         <f t="shared" si="1"/>
@@ -3504,7 +3576,7 @@
         <v>58</v>
       </c>
       <c r="R43" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S43" s="4">
         <f t="shared" si="1"/>
@@ -3564,7 +3636,7 @@
         <v>58</v>
       </c>
       <c r="R44" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S44" s="4">
         <f t="shared" si="1"/>
@@ -3624,7 +3696,7 @@
         <v>58</v>
       </c>
       <c r="R45" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S45" s="4">
         <f t="shared" si="1"/>
@@ -3684,7 +3756,7 @@
         <v>58</v>
       </c>
       <c r="R46" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S46" s="4">
         <f t="shared" si="1"/>
@@ -3744,7 +3816,7 @@
         <v>58</v>
       </c>
       <c r="R47" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S47" s="4">
         <f t="shared" si="1"/>
@@ -3804,7 +3876,7 @@
         <v>58</v>
       </c>
       <c r="R48" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S48" s="4">
         <f t="shared" si="1"/>
@@ -3864,7 +3936,7 @@
         <v>58</v>
       </c>
       <c r="R49" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S49" s="4">
         <f t="shared" si="1"/>
@@ -3924,7 +3996,7 @@
         <v>58</v>
       </c>
       <c r="R50" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S50" s="4">
         <f t="shared" si="1"/>
@@ -3984,7 +4056,7 @@
         <v>58</v>
       </c>
       <c r="R51" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S51" s="4">
         <f t="shared" si="1"/>
@@ -4044,7 +4116,7 @@
         <v>58</v>
       </c>
       <c r="R52" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S52" s="4">
         <f t="shared" si="1"/>
@@ -4104,7 +4176,7 @@
         <v>58</v>
       </c>
       <c r="R53" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S53" s="4">
         <f t="shared" si="1"/>
@@ -4164,7 +4236,7 @@
         <v>58</v>
       </c>
       <c r="R54" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S54" s="4">
         <f t="shared" si="1"/>
@@ -4224,7 +4296,7 @@
         <v>58</v>
       </c>
       <c r="R55" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S55" s="4">
         <f t="shared" si="1"/>
@@ -4284,7 +4356,7 @@
         <v>58</v>
       </c>
       <c r="R56" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S56" s="4">
         <f t="shared" si="1"/>
@@ -4344,7 +4416,7 @@
         <v>58</v>
       </c>
       <c r="R57" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S57" s="4">
         <f t="shared" si="1"/>
@@ -4404,7 +4476,7 @@
         <v>58</v>
       </c>
       <c r="R58" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="1"/>
@@ -4464,7 +4536,7 @@
         <v>58</v>
       </c>
       <c r="R59" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S59" s="4">
         <f t="shared" si="1"/>
@@ -4473,7 +4545,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B60">
         <v>36</v>
@@ -4518,13 +4590,13 @@
         <v>0</v>
       </c>
       <c r="P60" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q60" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R60" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S60" s="4">
         <f t="shared" si="1"/>
@@ -4533,7 +4605,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B61">
         <v>36</v>
@@ -4578,13 +4650,13 @@
         <v>0</v>
       </c>
       <c r="P61" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q61" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="R61" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S61" s="4">
         <f t="shared" si="1"/>
@@ -4593,13 +4665,13 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B62">
         <v>10</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -4608,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -4641,20 +4713,20 @@
         <v>83</v>
       </c>
       <c r="Q62" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R62" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="S62" s="4">
         <f t="shared" si="1"/>
-        <v>279.095416661</v>
+        <v>312.09307094500002</v>
       </c>
       <c r="T62" s="4"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -4669,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -4702,20 +4774,20 @@
         <v>83</v>
       </c>
       <c r="Q63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R63" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="S63" s="4">
         <f t="shared" si="1"/>
-        <v>272.04834561400003</v>
+        <v>304.03817485799999</v>
       </c>
       <c r="T63" s="4"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -4763,10 +4835,10 @@
         <v>83</v>
       </c>
       <c r="Q64" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R64" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="S64" s="4">
         <f t="shared" si="1"/>
@@ -4776,7 +4848,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B65">
         <v>45</v>
@@ -4821,13 +4893,13 @@
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q65" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R65" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S65" s="4">
         <f t="shared" si="1"/>
@@ -4837,7 +4909,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B66">
         <v>49</v>
@@ -4882,13 +4954,13 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R66" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S66" s="4">
         <f t="shared" si="1"/>
@@ -4898,7 +4970,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B67">
         <v>47</v>
@@ -4943,13 +5015,13 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q67" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="R67" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S67" s="4">
         <f t="shared" si="1"/>
@@ -4959,7 +5031,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B68">
         <v>46</v>
@@ -5004,13 +5076,13 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q68" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="R68" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S68" s="4">
         <f t="shared" si="1"/>
@@ -5020,7 +5092,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B69">
         <v>46</v>
@@ -5065,13 +5137,13 @@
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q69" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="R69" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S69" s="4">
         <f t="shared" si="1"/>
@@ -5081,7 +5153,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>40</v>
@@ -5126,13 +5198,13 @@
         <v>0</v>
       </c>
       <c r="P70" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q70" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R70" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S70" s="4">
         <f t="shared" si="1"/>
@@ -5142,7 +5214,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>40</v>
@@ -5187,13 +5259,13 @@
         <v>0</v>
       </c>
       <c r="P71" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q71" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R71" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S71" s="4">
         <f t="shared" si="1"/>
@@ -5203,7 +5275,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B72">
         <v>45</v>
@@ -5248,13 +5320,13 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q72" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R72" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S72" s="4">
         <f t="shared" si="1"/>
@@ -5264,7 +5336,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B73">
         <v>45</v>
@@ -5309,13 +5381,13 @@
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q73" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R73" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S73" s="4">
         <f t="shared" si="1"/>
@@ -5325,7 +5397,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B74">
         <v>44</v>
@@ -5370,13 +5442,13 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q74" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R74" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S74" s="4">
         <f t="shared" si="1"/>
@@ -5386,7 +5458,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B75">
         <v>44</v>
@@ -5431,13 +5503,13 @@
         <v>0</v>
       </c>
       <c r="P75" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q75" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R75" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S75" s="4">
         <f t="shared" si="1"/>
@@ -5447,7 +5519,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B76">
         <v>43</v>
@@ -5492,13 +5564,13 @@
         <v>0</v>
       </c>
       <c r="P76" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q76" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R76" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S76" s="4">
         <f t="shared" si="1"/>
@@ -5508,7 +5580,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -5553,13 +5625,13 @@
         <v>0</v>
       </c>
       <c r="P77" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q77" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R77" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S77" s="4">
         <f t="shared" si="1"/>
@@ -5569,7 +5641,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B78">
         <v>42</v>
@@ -5614,13 +5686,13 @@
         <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R78" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S78" s="4">
         <f t="shared" si="1"/>
@@ -5630,7 +5702,7 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B79">
         <v>42</v>
@@ -5675,13 +5747,13 @@
         <v>0</v>
       </c>
       <c r="P79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R79" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S79" s="4">
         <f t="shared" si="1"/>
@@ -5691,7 +5763,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B80">
         <v>41</v>
@@ -5736,13 +5808,13 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q80" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R80" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S80" s="4">
         <f t="shared" si="1"/>
@@ -5752,7 +5824,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B81">
         <v>41</v>
@@ -5797,13 +5869,13 @@
         <v>0</v>
       </c>
       <c r="P81" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q81" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R81" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S81" s="4">
         <f t="shared" si="1"/>
@@ -5813,7 +5885,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B82">
         <v>40</v>
@@ -5858,13 +5930,13 @@
         <v>0</v>
       </c>
       <c r="P82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R82" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S82" s="4">
         <f t="shared" ref="S82:S101" si="2">B82*$B$1+C82*$C$1+D82*$D$1+E82*$E$1+F82*$F$1+G82*$G$1+H82*$H$1+I82*$I$1+J82*$J$1+K82*$K$1+L82*$L$1+M82*$M$1+N82*$N$1+O82*$O$1</f>
@@ -5874,7 +5946,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B83">
         <v>40</v>
@@ -5919,13 +5991,13 @@
         <v>0</v>
       </c>
       <c r="P83" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q83" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R83" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S83" s="4">
         <f t="shared" si="2"/>
@@ -5935,7 +6007,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B84">
         <v>39</v>
@@ -5980,13 +6052,13 @@
         <v>0</v>
       </c>
       <c r="P84" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q84" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R84" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S84" s="4">
         <f t="shared" si="2"/>
@@ -5996,7 +6068,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B85">
         <v>39</v>
@@ -6041,13 +6113,13 @@
         <v>0</v>
       </c>
       <c r="P85" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q85" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R85" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S85" s="4">
         <f t="shared" si="2"/>
@@ -6057,7 +6129,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B86">
         <v>53</v>
@@ -6102,13 +6174,13 @@
         <v>0</v>
       </c>
       <c r="P86" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q86" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R86" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S86" s="4">
         <f t="shared" si="2"/>
@@ -6118,7 +6190,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B87">
         <v>53</v>
@@ -6163,13 +6235,13 @@
         <v>0</v>
       </c>
       <c r="P87" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q87" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R87" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S87" s="4">
         <f t="shared" si="2"/>
@@ -6179,7 +6251,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B88">
         <v>53</v>
@@ -6224,13 +6296,13 @@
         <v>0</v>
       </c>
       <c r="P88" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q88" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R88" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S88" s="4">
         <f t="shared" si="2"/>
@@ -6240,7 +6312,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B89">
         <v>14</v>
@@ -6285,13 +6357,13 @@
         <v>0</v>
       </c>
       <c r="P89" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q89" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R89" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S89" s="4">
         <f t="shared" si="2"/>
@@ -6301,7 +6373,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B90">
         <v>19</v>
@@ -6346,13 +6418,13 @@
         <v>0</v>
       </c>
       <c r="P90" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q90" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R90" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S90" s="4">
         <f t="shared" si="2"/>
@@ -6362,7 +6434,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B91">
         <v>24</v>
@@ -6407,13 +6479,13 @@
         <v>0</v>
       </c>
       <c r="P91" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q91" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R91" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S91" s="4">
         <f t="shared" si="2"/>
@@ -6423,7 +6495,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B92">
         <v>29</v>
@@ -6468,13 +6540,13 @@
         <v>0</v>
       </c>
       <c r="P92" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q92" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R92" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S92" s="4">
         <f t="shared" si="2"/>
@@ -6484,7 +6556,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B93">
         <v>34</v>
@@ -6529,13 +6601,13 @@
         <v>0</v>
       </c>
       <c r="P93" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q93" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R93" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S93" s="4">
         <f t="shared" si="2"/>
@@ -6545,7 +6617,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B94">
         <v>39</v>
@@ -6590,13 +6662,13 @@
         <v>0</v>
       </c>
       <c r="P94" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q94" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R94" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S94" s="4">
         <f t="shared" si="2"/>
@@ -6606,7 +6678,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B95">
         <v>44</v>
@@ -6651,13 +6723,13 @@
         <v>0</v>
       </c>
       <c r="P95" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q95" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R95" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S95" s="4">
         <f t="shared" si="2"/>
@@ -6667,7 +6739,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B96">
         <v>49</v>
@@ -6712,13 +6784,13 @@
         <v>0</v>
       </c>
       <c r="P96" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q96" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R96" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S96" s="4">
         <f t="shared" si="2"/>
@@ -6728,7 +6800,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B97">
         <v>54</v>
@@ -6773,13 +6845,13 @@
         <v>0</v>
       </c>
       <c r="P97" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q97" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R97" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S97" s="4">
         <f t="shared" si="2"/>
@@ -6789,7 +6861,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B98">
         <v>59</v>
@@ -6834,13 +6906,13 @@
         <v>0</v>
       </c>
       <c r="P98" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q98" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R98" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S98" s="4">
         <f t="shared" si="2"/>
@@ -6850,7 +6922,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B99">
         <v>64</v>
@@ -6895,13 +6967,13 @@
         <v>0</v>
       </c>
       <c r="P99" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q99" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R99" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S99" s="4">
         <f t="shared" si="2"/>
@@ -6911,7 +6983,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B100">
         <v>69</v>
@@ -6956,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="P100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R100" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S100" s="4">
         <f t="shared" si="2"/>
@@ -6972,7 +7044,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B101">
         <v>74</v>
@@ -7017,13 +7089,13 @@
         <v>0</v>
       </c>
       <c r="P101" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q101" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R101" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="S101" s="4">
         <f t="shared" si="2"/>
@@ -7041,8 +7113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q100"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7095,13 +7167,13 @@
         <v>44</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R1" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -7157,7 +7229,7 @@
         <v>53</v>
       </c>
       <c r="R2" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -7213,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -7269,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -7325,7 +7397,7 @@
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -7381,7 +7453,7 @@
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -7437,7 +7509,7 @@
         <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -7493,7 +7565,7 @@
         <v>5</v>
       </c>
       <c r="R8" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -7549,7 +7621,7 @@
         <v>6</v>
       </c>
       <c r="R9" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -7605,7 +7677,7 @@
         <v>92</v>
       </c>
       <c r="R10" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -7661,7 +7733,7 @@
         <v>7</v>
       </c>
       <c r="R11" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -7717,7 +7789,7 @@
         <v>8</v>
       </c>
       <c r="R12" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -7773,7 +7845,7 @@
         <v>58</v>
       </c>
       <c r="R13" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -7829,7 +7901,7 @@
         <v>9</v>
       </c>
       <c r="R14" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -7879,7 +7951,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="R15" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -7929,10 +8004,13 @@
         <v>0</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="R16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -7979,10 +8057,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="R17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -8029,10 +8110,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="R18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -8079,10 +8163,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="R19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -8129,10 +8216,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="R20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -8179,10 +8269,13 @@
         <v>0</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="R21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -8229,10 +8322,13 @@
         <v>0</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="R22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -8279,10 +8375,13 @@
         <v>0</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="R23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -8329,10 +8428,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="R24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -8379,10 +8481,13 @@
         <v>0</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="R25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -8429,10 +8534,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="R26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -8479,10 +8587,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="R27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -8529,10 +8640,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="R28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -8579,10 +8693,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="R29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>23</v>
       </c>
@@ -8629,10 +8746,13 @@
         <v>0</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="R30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
@@ -8679,10 +8799,13 @@
         <v>0</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="R31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
@@ -8729,7 +8852,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="R32" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -8779,7 +8905,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="R33" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -8829,7 +8958,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="R34" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -8879,7 +9011,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="R35" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -8929,7 +9064,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="R36" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -8985,7 +9123,7 @@
         <v>20</v>
       </c>
       <c r="R37" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -9041,7 +9179,7 @@
         <v>58</v>
       </c>
       <c r="R38" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -9097,7 +9235,7 @@
         <v>58</v>
       </c>
       <c r="R39" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
@@ -9153,7 +9291,7 @@
         <v>58</v>
       </c>
       <c r="R40" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -9209,7 +9347,7 @@
         <v>58</v>
       </c>
       <c r="R41" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -9265,7 +9403,7 @@
         <v>58</v>
       </c>
       <c r="R42" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -9321,7 +9459,7 @@
         <v>58</v>
       </c>
       <c r="R43" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -9377,7 +9515,7 @@
         <v>58</v>
       </c>
       <c r="R44" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
@@ -9433,7 +9571,7 @@
         <v>58</v>
       </c>
       <c r="R45" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
@@ -9489,7 +9627,7 @@
         <v>58</v>
       </c>
       <c r="R46" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -9545,7 +9683,7 @@
         <v>58</v>
       </c>
       <c r="R47" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
@@ -9601,7 +9739,7 @@
         <v>58</v>
       </c>
       <c r="R48" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
@@ -9657,7 +9795,7 @@
         <v>58</v>
       </c>
       <c r="R49" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
@@ -9713,7 +9851,7 @@
         <v>58</v>
       </c>
       <c r="R50" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
@@ -9769,7 +9907,7 @@
         <v>58</v>
       </c>
       <c r="R51" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
@@ -9825,7 +9963,7 @@
         <v>58</v>
       </c>
       <c r="R52" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
@@ -9881,7 +10019,7 @@
         <v>58</v>
       </c>
       <c r="R53" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
@@ -9937,7 +10075,7 @@
         <v>58</v>
       </c>
       <c r="R54" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
@@ -9993,7 +10131,7 @@
         <v>58</v>
       </c>
       <c r="R55" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
@@ -10049,7 +10187,7 @@
         <v>58</v>
       </c>
       <c r="R56" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
@@ -10105,7 +10243,7 @@
         <v>58</v>
       </c>
       <c r="R57" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
@@ -10161,12 +10299,12 @@
         <v>58</v>
       </c>
       <c r="R58" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>36</v>
@@ -10211,18 +10349,18 @@
         <v>0</v>
       </c>
       <c r="P59" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q59" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R59" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>36</v>
@@ -10267,24 +10405,24 @@
         <v>0</v>
       </c>
       <c r="P60" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q60" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="R60" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>10</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -10293,7 +10431,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -10326,15 +10464,15 @@
         <v>83</v>
       </c>
       <c r="Q61" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R61" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -10349,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -10382,15 +10520,15 @@
         <v>83</v>
       </c>
       <c r="Q62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R62" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -10438,15 +10576,15 @@
         <v>83</v>
       </c>
       <c r="Q63" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R63" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B64">
         <v>45</v>
@@ -10491,18 +10629,18 @@
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q64" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R64" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B65">
         <v>49</v>
@@ -10547,18 +10685,18 @@
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q65" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R65" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B66">
         <v>47</v>
@@ -10603,18 +10741,18 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q66" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="R66" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B67">
         <v>46</v>
@@ -10659,18 +10797,18 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q67" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="R67" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>46</v>
@@ -10715,18 +10853,18 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q68" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="R68" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <v>40</v>
@@ -10771,18 +10909,18 @@
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q69" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R69" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>40</v>
@@ -10827,18 +10965,18 @@
         <v>0</v>
       </c>
       <c r="P70" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q70" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R70" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B71">
         <v>45</v>
@@ -10883,18 +11021,18 @@
         <v>0</v>
       </c>
       <c r="P71" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q71" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R71" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B72">
         <v>45</v>
@@ -10939,18 +11077,18 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q72" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R72" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B73">
         <v>44</v>
@@ -10995,18 +11133,18 @@
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q73" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R73" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B74">
         <v>44</v>
@@ -11051,18 +11189,18 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q74" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R74" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B75">
         <v>43</v>
@@ -11107,18 +11245,18 @@
         <v>0</v>
       </c>
       <c r="P75" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q75" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R75" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B76">
         <v>43</v>
@@ -11163,18 +11301,18 @@
         <v>0</v>
       </c>
       <c r="P76" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q76" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R76" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B77">
         <v>42</v>
@@ -11219,18 +11357,18 @@
         <v>0</v>
       </c>
       <c r="P77" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q77" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R77" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B78">
         <v>42</v>
@@ -11275,18 +11413,18 @@
         <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R78" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B79">
         <v>41</v>
@@ -11331,18 +11469,18 @@
         <v>0</v>
       </c>
       <c r="P79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R79" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B80">
         <v>41</v>
@@ -11387,18 +11525,18 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q80" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R80" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B81">
         <v>40</v>
@@ -11443,18 +11581,18 @@
         <v>0</v>
       </c>
       <c r="P81" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q81" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R81" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B82">
         <v>40</v>
@@ -11499,18 +11637,18 @@
         <v>0</v>
       </c>
       <c r="P82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R82" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B83">
         <v>39</v>
@@ -11555,18 +11693,18 @@
         <v>0</v>
       </c>
       <c r="P83" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q83" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R83" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B84">
         <v>39</v>
@@ -11611,18 +11749,18 @@
         <v>0</v>
       </c>
       <c r="P84" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q84" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R84" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B85">
         <v>53</v>
@@ -11667,18 +11805,18 @@
         <v>0</v>
       </c>
       <c r="P85" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q85" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R85" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B86">
         <v>53</v>
@@ -11723,18 +11861,18 @@
         <v>0</v>
       </c>
       <c r="P86" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q86" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R86" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B87">
         <v>53</v>
@@ -11779,18 +11917,18 @@
         <v>0</v>
       </c>
       <c r="P87" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q87" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R87" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B88">
         <v>14</v>
@@ -11835,18 +11973,18 @@
         <v>0</v>
       </c>
       <c r="P88" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q88" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R88" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B89">
         <v>19</v>
@@ -11891,18 +12029,18 @@
         <v>0</v>
       </c>
       <c r="P89" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q89" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R89" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B90">
         <v>24</v>
@@ -11947,18 +12085,18 @@
         <v>0</v>
       </c>
       <c r="P90" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q90" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R90" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B91">
         <v>29</v>
@@ -12003,18 +12141,18 @@
         <v>0</v>
       </c>
       <c r="P91" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q91" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R91" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B92">
         <v>34</v>
@@ -12059,18 +12197,18 @@
         <v>0</v>
       </c>
       <c r="P92" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q92" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R92" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B93">
         <v>39</v>
@@ -12115,18 +12253,18 @@
         <v>0</v>
       </c>
       <c r="P93" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q93" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R93" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B94">
         <v>44</v>
@@ -12171,18 +12309,18 @@
         <v>0</v>
       </c>
       <c r="P94" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q94" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R94" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B95">
         <v>49</v>
@@ -12227,18 +12365,18 @@
         <v>0</v>
       </c>
       <c r="P95" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q95" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R95" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B96">
         <v>54</v>
@@ -12283,18 +12421,18 @@
         <v>0</v>
       </c>
       <c r="P96" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q96" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R96" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B97">
         <v>59</v>
@@ -12339,18 +12477,18 @@
         <v>0</v>
       </c>
       <c r="P97" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q97" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R97" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B98">
         <v>64</v>
@@ -12395,18 +12533,18 @@
         <v>0</v>
       </c>
       <c r="P98" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q98" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R98" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B99">
         <v>69</v>
@@ -12451,18 +12589,18 @@
         <v>0</v>
       </c>
       <c r="P99" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q99" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R99" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B100">
         <v>74</v>
@@ -12507,13 +12645,13 @@
         <v>0</v>
       </c>
       <c r="P100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R100" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -12627,10 +12765,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12661,7 +12799,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -12686,7 +12824,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -12754,7 +12892,7 @@
         <v>42344</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
@@ -12787,10 +12925,10 @@
         <v>42624</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -12798,10 +12936,10 @@
         <v>42709</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -12809,10 +12947,10 @@
         <v>42719</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -12820,7 +12958,7 @@
         <v>42758</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
@@ -12831,7 +12969,7 @@
         <v>42758</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
@@ -12842,7 +12980,7 @@
         <v>42758</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -12853,7 +12991,7 @@
         <v>42758</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -12864,9 +13002,31 @@
         <v>42758</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>42759</v>
+      </c>
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>42759</v>
+      </c>
+      <c r="B32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" t="s">
         <v>50</v>
       </c>
     </row>

--- a/inst/doc/xlsx/LOBSTAHS_basic_component_matrix.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_basic_component_matrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="460" windowWidth="25040" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="1640" yWindow="460" windowWidth="25040" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Elemental composition matrix" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="170">
   <si>
     <t>DGCC</t>
   </si>
@@ -533,7 +533,13 @@
     <t>DB_unique_species</t>
   </si>
   <si>
-    <t>Fixed composition definitions of BLL, PDPT (still verifying PDPT &amp; waiting on verification for S_DGCC)</t>
+    <t>Fixed composition definitions of BLL (still verifying PDPT &amp; waiting on verification for S_DGCC)</t>
+  </si>
+  <si>
+    <t>Fixed composition definitions of PDPT and S_DGCC</t>
+  </si>
+  <si>
+    <t>HFF</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1077,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="1080" topLeftCell="A52" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="1080" activePane="bottomLeft"/>
       <selection activeCell="R3" sqref="R3"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:R101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4671,7 +4677,7 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -4720,7 +4726,7 @@
       </c>
       <c r="S62" s="4">
         <f t="shared" si="1"/>
-        <v>312.09307094500002</v>
+        <v>311.08524590499997</v>
       </c>
       <c r="T62" s="4"/>
     </row>
@@ -4802,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -4842,7 +4848,7 @@
       </c>
       <c r="S64" s="4">
         <f t="shared" si="1"/>
-        <v>266.08240914200002</v>
+        <v>298.07223838599998</v>
       </c>
       <c r="T64" s="4"/>
     </row>
@@ -7113,8 +7119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10422,7 +10428,7 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -10543,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -12765,10 +12771,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13030,6 +13036,17 @@
         <v>50</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>42760</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/inst/doc/xlsx/LOBSTAHS_basic_component_matrix.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_basic_component_matrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="460" windowWidth="25040" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1640" yWindow="460" windowWidth="25040" windowHeight="17460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Elemental composition matrix" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="172">
   <si>
     <t>DGCC</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Matrix created and validated</t>
   </si>
   <si>
-    <t>Navigate to second tab, "For export to .csv"</t>
-  </si>
-  <si>
     <t>FFA</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
     <t>Latest versions of all pipeline scripts and required files available at https://github.com/vanmooylipidomics/LOBSTAHS, or upon demand from Dr. Fredricks</t>
   </si>
   <si>
-    <t>If making any additions or modifications to the default set of entires, do these in the worksheet on the first tab; then, paste any of the additional/modified entries "as values" into the third tab before saving</t>
-  </si>
-  <si>
     <t>Updated some comments</t>
   </si>
   <si>
@@ -302,9 +296,6 @@
     <t>Can be used to generate "LOBSTAHS_basic_component_matrix.csv," required for lipid-oxlipid-oxyipin database generation in the LOBSTAHS lipidomics screening pipeline</t>
   </si>
   <si>
-    <t>Export the worksheet as a .csv file with the filename "LOBSTAHS_basic_component_matrix.csv"; this file can be sourced by specifying the file path in the LOBSTAHS database generation function</t>
-  </si>
-  <si>
     <t>Fixed error in DNPPE components</t>
   </si>
   <si>
@@ -540,6 +531,21 @@
   </si>
   <si>
     <t>HFF</t>
+  </si>
+  <si>
+    <t>When done with edits/additions, copy all data in "Elemental composition matrix" except for the first row and last column</t>
+  </si>
+  <si>
+    <t>Navigate to second tab, "For export to .csv," then paste the data copied from the first worksheet "as values"</t>
+  </si>
+  <si>
+    <t>Make any additions or modifications to the default set of entries by editing data in the first worksheet ("Elemental composition matrix")</t>
+  </si>
+  <si>
+    <t>Export the "For export to .csv" worksheet as a .csv file with the filename "LOBSTAHS_basic_component_matrix.csv"; this file can be sourced by specifying the file path in the LOBSTAHS database generation function</t>
+  </si>
+  <si>
+    <t>Note any changes in changelog (this "Notes" worksheet); consider requesting incorporation of your new lipids into the default LOBSTAHS database via a pull request on GitHub</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1086,7 @@
     <sheetView topLeftCell="A2" workbookViewId="0">
       <pane ySplit="1080" activePane="bottomLeft"/>
       <selection activeCell="R3" sqref="R3"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:R101"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1147,7 +1153,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -1171,25 +1177,25 @@
         <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
         <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S2" t="s">
         <v>43</v>
@@ -1197,7 +1203,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1242,13 +1248,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" ref="S3:S15" si="0">B3*$B$1+C3*$C$1+D3*$D$1+E3*$E$1+F3*$F$1+G3*$G$1+H3*$H$1+I3*$I$1+J3*$J$1+K3*$K$1+L3*$L$1+M3*$M$1+N3*$N$1+O3*$O$1</f>
@@ -1302,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q4" t="s">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
@@ -1362,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q5" t="s">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
@@ -1422,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q6" t="s">
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="0"/>
@@ -1488,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="0"/>
@@ -1542,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
         <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="0"/>
@@ -1602,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q9" t="s">
         <v>5</v>
       </c>
       <c r="R9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S9" s="4">
         <f t="shared" si="0"/>
@@ -1662,13 +1668,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q10" t="s">
         <v>6</v>
       </c>
       <c r="R10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="0"/>
@@ -1677,7 +1683,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -1722,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S11" s="4">
         <f t="shared" si="0"/>
@@ -1788,7 +1794,7 @@
         <v>7</v>
       </c>
       <c r="R12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S12" s="4">
         <f t="shared" si="0"/>
@@ -1842,13 +1848,13 @@
         <v>0</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="R13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S13" s="4">
         <f t="shared" si="0"/>
@@ -1857,7 +1863,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>55</v>
@@ -1902,13 +1908,13 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" si="0"/>
@@ -1962,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="R15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S15" s="4">
         <f t="shared" si="0"/>
@@ -2022,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="S16" s="4">
         <f>B16*$B$1+C16*$C$1+D16*$D$1+E16*$E$1+F16*$F$1+G16*$G$1+H16*$H$1+I16*$I$1+J16*$J$1+K16*$K$1+L16*$L$1</f>
@@ -2079,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="S17" s="4">
         <f>B17*$B$1+C17*$C$1+D17*$D$1+E17*$E$1+F17*$F$1+G17*$G$1+H17*$H$1+I17*$I$1+J17*$J$1+K17*$K$1+L17*$L$1</f>
@@ -2136,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" ref="S18:S81" si="1">B18*$B$1+C18*$C$1+D18*$D$1+E18*$E$1+F18*$F$1+G18*$G$1+H18*$H$1+I18*$I$1+J18*$J$1+K18*$K$1+L18*$L$1+M18*$M$1+N18*$N$1+O18*$O$1</f>
@@ -2193,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="1"/>
@@ -2250,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="1"/>
@@ -2307,10 +2313,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" si="1"/>
@@ -2364,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S22" s="4">
         <f t="shared" si="1"/>
@@ -2376,7 +2382,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2421,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" si="1"/>
@@ -2478,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="1"/>
@@ -2535,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="1"/>
@@ -2592,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="1"/>
@@ -2649,10 +2655,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="1"/>
@@ -2706,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="1"/>
@@ -2763,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="1"/>
@@ -2820,10 +2826,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="1"/>
@@ -2877,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S31" s="4">
         <f t="shared" si="1"/>
@@ -2934,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S32" s="4">
         <f t="shared" si="1"/>
@@ -2991,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S33" s="4">
         <f t="shared" si="1"/>
@@ -3048,10 +3054,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S34" s="4">
         <f t="shared" si="1"/>
@@ -3105,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S35" s="4">
         <f t="shared" si="1"/>
@@ -3162,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S36" s="4">
         <f t="shared" si="1"/>
@@ -3219,10 +3225,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S37" s="4">
         <f t="shared" si="1"/>
@@ -3282,7 +3288,7 @@
         <v>20</v>
       </c>
       <c r="R38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S38" s="4">
         <f t="shared" si="1"/>
@@ -3291,7 +3297,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>46</v>
@@ -3336,13 +3342,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S39" s="4">
         <f t="shared" si="1"/>
@@ -3351,7 +3357,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>48</v>
@@ -3396,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S40" s="4">
         <f t="shared" si="1"/>
@@ -3411,7 +3417,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -3456,13 +3462,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S41" s="4">
         <f t="shared" si="1"/>
@@ -3471,7 +3477,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -3516,13 +3522,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R42" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S42" s="4">
         <f t="shared" si="1"/>
@@ -3531,7 +3537,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>40</v>
@@ -3576,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S43" s="4">
         <f t="shared" si="1"/>
@@ -3591,7 +3597,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>55</v>
@@ -3636,13 +3642,13 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R44" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S44" s="4">
         <f t="shared" si="1"/>
@@ -3651,7 +3657,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>35</v>
@@ -3696,13 +3702,13 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S45" s="4">
         <f t="shared" si="1"/>
@@ -3711,7 +3717,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>36</v>
@@ -3756,13 +3762,13 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R46" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S46" s="4">
         <f t="shared" si="1"/>
@@ -3771,7 +3777,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>35</v>
@@ -3816,13 +3822,13 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S47" s="4">
         <f t="shared" si="1"/>
@@ -3831,7 +3837,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48">
         <v>40</v>
@@ -3876,13 +3882,13 @@
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S48" s="4">
         <f t="shared" si="1"/>
@@ -3891,7 +3897,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>40</v>
@@ -3936,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R49" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S49" s="4">
         <f t="shared" si="1"/>
@@ -3951,7 +3957,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>40</v>
@@ -3996,13 +4002,13 @@
         <v>0</v>
       </c>
       <c r="P50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S50" s="4">
         <f t="shared" si="1"/>
@@ -4011,7 +4017,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -4056,13 +4062,13 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R51" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S51" s="4">
         <f t="shared" si="1"/>
@@ -4071,7 +4077,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>42</v>
@@ -4116,13 +4122,13 @@
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S52" s="4">
         <f t="shared" si="1"/>
@@ -4131,7 +4137,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>40</v>
@@ -4176,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="P53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S53" s="4">
         <f t="shared" si="1"/>
@@ -4191,7 +4197,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>40</v>
@@ -4236,13 +4242,13 @@
         <v>0</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R54" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S54" s="4">
         <f t="shared" si="1"/>
@@ -4251,7 +4257,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>39</v>
@@ -4296,13 +4302,13 @@
         <v>0</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R55" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S55" s="4">
         <f t="shared" si="1"/>
@@ -4311,7 +4317,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -4356,13 +4362,13 @@
         <v>0</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R56" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S56" s="4">
         <f t="shared" si="1"/>
@@ -4371,7 +4377,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57">
         <v>40</v>
@@ -4416,13 +4422,13 @@
         <v>0</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R57" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S57" s="4">
         <f t="shared" si="1"/>
@@ -4431,7 +4437,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>40</v>
@@ -4476,13 +4482,13 @@
         <v>0</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R58" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="1"/>
@@ -4491,7 +4497,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>40</v>
@@ -4536,13 +4542,13 @@
         <v>0</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R59" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S59" s="4">
         <f t="shared" si="1"/>
@@ -4551,7 +4557,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B60">
         <v>36</v>
@@ -4596,13 +4602,13 @@
         <v>0</v>
       </c>
       <c r="P60" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q60" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="R60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S60" s="4">
         <f t="shared" si="1"/>
@@ -4611,7 +4617,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B61">
         <v>36</v>
@@ -4656,13 +4662,13 @@
         <v>0</v>
       </c>
       <c r="P61" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q61" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R61" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S61" s="4">
         <f t="shared" si="1"/>
@@ -4671,7 +4677,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -4716,13 +4722,13 @@
         <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q62" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="R62" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S62" s="4">
         <f t="shared" si="1"/>
@@ -4732,7 +4738,7 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -4777,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q63" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="R63" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S63" s="4">
         <f t="shared" si="1"/>
@@ -4793,7 +4799,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -4838,13 +4844,13 @@
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q64" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R64" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S64" s="4">
         <f t="shared" si="1"/>
@@ -4854,7 +4860,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B65">
         <v>45</v>
@@ -4899,13 +4905,13 @@
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R65" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S65" s="4">
         <f t="shared" si="1"/>
@@ -4915,7 +4921,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B66">
         <v>49</v>
@@ -4960,13 +4966,13 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q66" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R66" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S66" s="4">
         <f t="shared" si="1"/>
@@ -4976,7 +4982,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B67">
         <v>47</v>
@@ -5021,13 +5027,13 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R67" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S67" s="4">
         <f t="shared" si="1"/>
@@ -5037,7 +5043,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B68">
         <v>46</v>
@@ -5082,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q68" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R68" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S68" s="4">
         <f t="shared" si="1"/>
@@ -5098,7 +5104,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B69">
         <v>46</v>
@@ -5143,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R69" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S69" s="4">
         <f t="shared" si="1"/>
@@ -5159,7 +5165,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B70">
         <v>40</v>
@@ -5204,13 +5210,13 @@
         <v>0</v>
       </c>
       <c r="P70" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q70" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S70" s="4">
         <f t="shared" si="1"/>
@@ -5220,7 +5226,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B71">
         <v>40</v>
@@ -5265,13 +5271,13 @@
         <v>0</v>
       </c>
       <c r="P71" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q71" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S71" s="4">
         <f t="shared" si="1"/>
@@ -5281,7 +5287,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B72">
         <v>45</v>
@@ -5326,13 +5332,13 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q72" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R72" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S72" s="4">
         <f t="shared" si="1"/>
@@ -5342,7 +5348,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B73">
         <v>45</v>
@@ -5387,13 +5393,13 @@
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q73" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R73" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S73" s="4">
         <f t="shared" si="1"/>
@@ -5403,7 +5409,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B74">
         <v>44</v>
@@ -5448,13 +5454,13 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q74" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R74" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S74" s="4">
         <f t="shared" si="1"/>
@@ -5464,7 +5470,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B75">
         <v>44</v>
@@ -5509,13 +5515,13 @@
         <v>0</v>
       </c>
       <c r="P75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S75" s="4">
         <f t="shared" si="1"/>
@@ -5525,7 +5531,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B76">
         <v>43</v>
@@ -5570,13 +5576,13 @@
         <v>0</v>
       </c>
       <c r="P76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R76" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S76" s="4">
         <f t="shared" si="1"/>
@@ -5586,7 +5592,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -5631,13 +5637,13 @@
         <v>0</v>
       </c>
       <c r="P77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R77" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S77" s="4">
         <f t="shared" si="1"/>
@@ -5647,7 +5653,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B78">
         <v>42</v>
@@ -5692,13 +5698,13 @@
         <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q78" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R78" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S78" s="4">
         <f t="shared" si="1"/>
@@ -5708,7 +5714,7 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B79">
         <v>42</v>
@@ -5753,13 +5759,13 @@
         <v>0</v>
       </c>
       <c r="P79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R79" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S79" s="4">
         <f t="shared" si="1"/>
@@ -5769,7 +5775,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B80">
         <v>41</v>
@@ -5814,13 +5820,13 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q80" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R80" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S80" s="4">
         <f t="shared" si="1"/>
@@ -5830,7 +5836,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B81">
         <v>41</v>
@@ -5875,13 +5881,13 @@
         <v>0</v>
       </c>
       <c r="P81" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q81" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R81" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S81" s="4">
         <f t="shared" si="1"/>
@@ -5891,7 +5897,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B82">
         <v>40</v>
@@ -5936,13 +5942,13 @@
         <v>0</v>
       </c>
       <c r="P82" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q82" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R82" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S82" s="4">
         <f t="shared" ref="S82:S101" si="2">B82*$B$1+C82*$C$1+D82*$D$1+E82*$E$1+F82*$F$1+G82*$G$1+H82*$H$1+I82*$I$1+J82*$J$1+K82*$K$1+L82*$L$1+M82*$M$1+N82*$N$1+O82*$O$1</f>
@@ -5952,7 +5958,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B83">
         <v>40</v>
@@ -5997,13 +6003,13 @@
         <v>0</v>
       </c>
       <c r="P83" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q83" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S83" s="4">
         <f t="shared" si="2"/>
@@ -6013,7 +6019,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B84">
         <v>39</v>
@@ -6058,13 +6064,13 @@
         <v>0</v>
       </c>
       <c r="P84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S84" s="4">
         <f t="shared" si="2"/>
@@ -6074,7 +6080,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B85">
         <v>39</v>
@@ -6119,13 +6125,13 @@
         <v>0</v>
       </c>
       <c r="P85" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q85" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S85" s="4">
         <f t="shared" si="2"/>
@@ -6135,7 +6141,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>53</v>
@@ -6180,13 +6186,13 @@
         <v>0</v>
       </c>
       <c r="P86" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q86" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S86" s="4">
         <f t="shared" si="2"/>
@@ -6196,7 +6202,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>53</v>
@@ -6241,13 +6247,13 @@
         <v>0</v>
       </c>
       <c r="P87" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q87" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R87" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S87" s="4">
         <f t="shared" si="2"/>
@@ -6257,7 +6263,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>53</v>
@@ -6302,13 +6308,13 @@
         <v>0</v>
       </c>
       <c r="P88" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q88" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="R88" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S88" s="4">
         <f t="shared" si="2"/>
@@ -6318,7 +6324,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>14</v>
@@ -6363,13 +6369,13 @@
         <v>0</v>
       </c>
       <c r="P89" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q89" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R89" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S89" s="4">
         <f t="shared" si="2"/>
@@ -6379,7 +6385,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>19</v>
@@ -6424,13 +6430,13 @@
         <v>0</v>
       </c>
       <c r="P90" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q90" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R90" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S90" s="4">
         <f t="shared" si="2"/>
@@ -6440,7 +6446,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>24</v>
@@ -6485,13 +6491,13 @@
         <v>0</v>
       </c>
       <c r="P91" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q91" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R91" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S91" s="4">
         <f t="shared" si="2"/>
@@ -6501,7 +6507,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>29</v>
@@ -6546,13 +6552,13 @@
         <v>0</v>
       </c>
       <c r="P92" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q92" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R92" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S92" s="4">
         <f t="shared" si="2"/>
@@ -6562,7 +6568,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>34</v>
@@ -6607,13 +6613,13 @@
         <v>0</v>
       </c>
       <c r="P93" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q93" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R93" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S93" s="4">
         <f t="shared" si="2"/>
@@ -6623,7 +6629,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>39</v>
@@ -6668,13 +6674,13 @@
         <v>0</v>
       </c>
       <c r="P94" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q94" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R94" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S94" s="4">
         <f t="shared" si="2"/>
@@ -6684,7 +6690,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>44</v>
@@ -6729,13 +6735,13 @@
         <v>0</v>
       </c>
       <c r="P95" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q95" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R95" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S95" s="4">
         <f t="shared" si="2"/>
@@ -6745,7 +6751,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>49</v>
@@ -6790,13 +6796,13 @@
         <v>0</v>
       </c>
       <c r="P96" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q96" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R96" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S96" s="4">
         <f t="shared" si="2"/>
@@ -6806,7 +6812,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>54</v>
@@ -6851,13 +6857,13 @@
         <v>0</v>
       </c>
       <c r="P97" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q97" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R97" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S97" s="4">
         <f t="shared" si="2"/>
@@ -6867,7 +6873,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>59</v>
@@ -6912,13 +6918,13 @@
         <v>0</v>
       </c>
       <c r="P98" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q98" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R98" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S98" s="4">
         <f t="shared" si="2"/>
@@ -6928,7 +6934,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>64</v>
@@ -6973,13 +6979,13 @@
         <v>0</v>
       </c>
       <c r="P99" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q99" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R99" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S99" s="4">
         <f t="shared" si="2"/>
@@ -6989,7 +6995,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>69</v>
@@ -7034,13 +7040,13 @@
         <v>0</v>
       </c>
       <c r="P100" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q100" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R100" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S100" s="4">
         <f t="shared" si="2"/>
@@ -7050,7 +7056,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>74</v>
@@ -7095,13 +7101,13 @@
         <v>0</v>
       </c>
       <c r="P101" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q101" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R101" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S101" s="4">
         <f t="shared" si="2"/>
@@ -7119,8 +7125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7137,7 +7143,7 @@
         <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
         <v>32</v>
@@ -7161,30 +7167,30 @@
         <v>38</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M1" t="s">
         <v>42</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O1" t="s">
         <v>44</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7229,13 +7235,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -7285,13 +7291,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q3" t="s">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -7341,13 +7347,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q4" t="s">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -7397,13 +7403,13 @@
         <v>0</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q5" t="s">
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -7459,7 +7465,7 @@
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -7509,13 +7515,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q7" t="s">
         <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -7565,13 +7571,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
         <v>5</v>
       </c>
       <c r="R8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -7621,18 +7627,18 @@
         <v>0</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q9" t="s">
         <v>6</v>
       </c>
       <c r="R9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -7677,13 +7683,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -7739,7 +7745,7 @@
         <v>7</v>
       </c>
       <c r="R11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -7789,18 +7795,18 @@
         <v>0</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="R12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>55</v>
@@ -7845,13 +7851,13 @@
         <v>1</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -7901,13 +7907,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="R14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -7957,10 +7963,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -8010,10 +8016,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -8063,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -8116,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -8169,10 +8175,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -8222,10 +8228,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -8275,15 +8281,15 @@
         <v>0</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -8328,10 +8334,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -8381,10 +8387,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -8434,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -8487,10 +8493,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -8540,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -8593,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="R27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -8646,10 +8652,10 @@
         <v>0</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -8699,10 +8705,10 @@
         <v>0</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -8752,10 +8758,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -8805,10 +8811,10 @@
         <v>0</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -8858,10 +8864,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -8911,10 +8917,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -8964,10 +8970,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -9017,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -9070,10 +9076,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -9129,12 +9135,12 @@
         <v>20</v>
       </c>
       <c r="R37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38">
         <v>46</v>
@@ -9179,18 +9185,18 @@
         <v>0</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39">
         <v>48</v>
@@ -9235,18 +9241,18 @@
         <v>0</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -9291,18 +9297,18 @@
         <v>0</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -9347,18 +9353,18 @@
         <v>0</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -9403,18 +9409,18 @@
         <v>0</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R42" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>55</v>
@@ -9459,18 +9465,18 @@
         <v>1</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>35</v>
@@ -9515,18 +9521,18 @@
         <v>1</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R44" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>36</v>
@@ -9571,18 +9577,18 @@
         <v>1</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>35</v>
@@ -9627,18 +9633,18 @@
         <v>1</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R46" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>40</v>
@@ -9683,18 +9689,18 @@
         <v>0</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>40</v>
@@ -9739,18 +9745,18 @@
         <v>0</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>40</v>
@@ -9795,18 +9801,18 @@
         <v>0</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R49" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50">
         <v>40</v>
@@ -9851,18 +9857,18 @@
         <v>0</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51">
         <v>42</v>
@@ -9907,18 +9913,18 @@
         <v>0</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R51" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52">
         <v>40</v>
@@ -9963,18 +9969,18 @@
         <v>0</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53">
         <v>40</v>
@@ -10019,18 +10025,18 @@
         <v>0</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54">
         <v>39</v>
@@ -10075,18 +10081,18 @@
         <v>0</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R54" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55">
         <v>55</v>
@@ -10131,18 +10137,18 @@
         <v>0</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R55" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56">
         <v>40</v>
@@ -10187,18 +10193,18 @@
         <v>0</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R56" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57">
         <v>40</v>
@@ -10243,18 +10249,18 @@
         <v>0</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R57" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58">
         <v>40</v>
@@ -10299,18 +10305,18 @@
         <v>0</v>
       </c>
       <c r="P58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R58" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B59">
         <v>36</v>
@@ -10355,18 +10361,18 @@
         <v>0</v>
       </c>
       <c r="P59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="R59" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B60">
         <v>36</v>
@@ -10411,18 +10417,18 @@
         <v>0</v>
       </c>
       <c r="P60" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q60" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -10467,18 +10473,18 @@
         <v>0</v>
       </c>
       <c r="P61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q61" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="R61" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -10523,18 +10529,18 @@
         <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="R62" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -10579,18 +10585,18 @@
         <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q63" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R63" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B64">
         <v>45</v>
@@ -10635,18 +10641,18 @@
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R64" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B65">
         <v>49</v>
@@ -10691,18 +10697,18 @@
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q65" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R65" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B66">
         <v>47</v>
@@ -10747,18 +10753,18 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R66" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B67">
         <v>46</v>
@@ -10803,18 +10809,18 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q67" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R67" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B68">
         <v>46</v>
@@ -10859,18 +10865,18 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q68" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R68" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B69">
         <v>40</v>
@@ -10915,18 +10921,18 @@
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q69" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R69" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B70">
         <v>40</v>
@@ -10971,18 +10977,18 @@
         <v>0</v>
       </c>
       <c r="P70" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q70" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B71">
         <v>45</v>
@@ -11027,18 +11033,18 @@
         <v>0</v>
       </c>
       <c r="P71" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q71" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B72">
         <v>45</v>
@@ -11083,18 +11089,18 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q72" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R72" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B73">
         <v>44</v>
@@ -11139,18 +11145,18 @@
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q73" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R73" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B74">
         <v>44</v>
@@ -11195,18 +11201,18 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q74" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R74" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B75">
         <v>43</v>
@@ -11251,18 +11257,18 @@
         <v>0</v>
       </c>
       <c r="P75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B76">
         <v>43</v>
@@ -11307,18 +11313,18 @@
         <v>0</v>
       </c>
       <c r="P76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R76" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B77">
         <v>42</v>
@@ -11363,18 +11369,18 @@
         <v>0</v>
       </c>
       <c r="P77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R77" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B78">
         <v>42</v>
@@ -11419,18 +11425,18 @@
         <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q78" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R78" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B79">
         <v>41</v>
@@ -11475,18 +11481,18 @@
         <v>0</v>
       </c>
       <c r="P79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R79" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B80">
         <v>41</v>
@@ -11531,18 +11537,18 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q80" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R80" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B81">
         <v>40</v>
@@ -11587,18 +11593,18 @@
         <v>0</v>
       </c>
       <c r="P81" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q81" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R81" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B82">
         <v>40</v>
@@ -11643,18 +11649,18 @@
         <v>0</v>
       </c>
       <c r="P82" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q82" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R82" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B83">
         <v>39</v>
@@ -11699,18 +11705,18 @@
         <v>0</v>
       </c>
       <c r="P83" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q83" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B84">
         <v>39</v>
@@ -11755,18 +11761,18 @@
         <v>0</v>
       </c>
       <c r="P84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B85">
         <v>53</v>
@@ -11811,18 +11817,18 @@
         <v>0</v>
       </c>
       <c r="P85" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q85" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B86">
         <v>53</v>
@@ -11867,18 +11873,18 @@
         <v>0</v>
       </c>
       <c r="P86" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q86" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B87">
         <v>53</v>
@@ -11923,18 +11929,18 @@
         <v>0</v>
       </c>
       <c r="P87" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q87" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="R87" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B88">
         <v>14</v>
@@ -11979,18 +11985,18 @@
         <v>0</v>
       </c>
       <c r="P88" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q88" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R88" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B89">
         <v>19</v>
@@ -12035,18 +12041,18 @@
         <v>0</v>
       </c>
       <c r="P89" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q89" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R89" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B90">
         <v>24</v>
@@ -12091,18 +12097,18 @@
         <v>0</v>
       </c>
       <c r="P90" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q90" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R90" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B91">
         <v>29</v>
@@ -12147,18 +12153,18 @@
         <v>0</v>
       </c>
       <c r="P91" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q91" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R91" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B92">
         <v>34</v>
@@ -12203,18 +12209,18 @@
         <v>0</v>
       </c>
       <c r="P92" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q92" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R92" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B93">
         <v>39</v>
@@ -12259,18 +12265,18 @@
         <v>0</v>
       </c>
       <c r="P93" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q93" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R93" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B94">
         <v>44</v>
@@ -12315,18 +12321,18 @@
         <v>0</v>
       </c>
       <c r="P94" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q94" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R94" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B95">
         <v>49</v>
@@ -12371,18 +12377,18 @@
         <v>0</v>
       </c>
       <c r="P95" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q95" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R95" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B96">
         <v>54</v>
@@ -12427,18 +12433,18 @@
         <v>0</v>
       </c>
       <c r="P96" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q96" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R96" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B97">
         <v>59</v>
@@ -12483,18 +12489,18 @@
         <v>0</v>
       </c>
       <c r="P97" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q97" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R97" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B98">
         <v>64</v>
@@ -12539,18 +12545,18 @@
         <v>0</v>
       </c>
       <c r="P98" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q98" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R98" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B99">
         <v>69</v>
@@ -12595,18 +12601,18 @@
         <v>0</v>
       </c>
       <c r="P99" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q99" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R99" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B100">
         <v>74</v>
@@ -12651,13 +12657,13 @@
         <v>0</v>
       </c>
       <c r="P100" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q100" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R100" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -12771,10 +12777,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12783,100 +12789,88 @@
     <col min="2" max="2" width="167.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>42327</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>42328</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>42329</v>
+        <v>42327</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
@@ -12884,10 +12878,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>42344</v>
+        <v>42328</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
@@ -12895,10 +12889,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>42344</v>
+        <v>42329</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
@@ -12906,10 +12900,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>42371</v>
+        <v>42344</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
         <v>50</v>
@@ -12917,10 +12911,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>42607</v>
+        <v>42344</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -12928,57 +12922,57 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>42624</v>
+        <v>42371</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>42709</v>
+        <v>42607</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>42719</v>
+        <v>42624</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>42758</v>
+        <v>42709</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>42758</v>
+        <v>42719</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -12986,7 +12980,7 @@
         <v>42758</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -12997,7 +12991,7 @@
         <v>42758</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -13008,7 +13002,7 @@
         <v>42758</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
@@ -13016,10 +13010,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>42759</v>
+        <v>42758</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
@@ -13027,10 +13021,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>42759</v>
+        <v>42758</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
@@ -13038,13 +13032,35 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
+        <v>42759</v>
+      </c>
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>42759</v>
+      </c>
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
         <v>42760</v>
       </c>
-      <c r="B33" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" t="s">
-        <v>169</v>
+      <c r="B35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
